--- a/data/hotels_by_city/Dallas/Dallas_shard_571.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_571.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,735 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r396708188-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>55828</t>
+  </si>
+  <si>
+    <t>98687</t>
+  </si>
+  <si>
+    <t>396708188</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Threatened!!!!!</t>
+  </si>
+  <si>
+    <t>This hotel is horrible, I went to check out and was told to leave property cause my name wasn't on room. My girlfriend rented room for us and paid for room, when  I explained this to him I was told to leave or law enforcement would be called.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r329703839-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>329703839</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Breaking Bad</t>
+  </si>
+  <si>
+    <t>Right on the highway with construction site out front bode that one weary traveller might not rest easy here. However, this is the least of your worries. Rooms appear clean at surface level, until you walk into to a stale aroma of meth that never fades. Moreover, one evening, I found myself in reception with 3 individuals obviously high off their faces negotiating with the staff for a night's stay with their spare cash... Unbelievably to their success. The owner is such a kind and helpful man, it is disappointing to see how he is not holding up high standards on what could be an accommodating place. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Dallas - Farmers Branch, responded to this reviewResponded November 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2015</t>
+  </si>
+  <si>
+    <t>Right on the highway with construction site out front bode that one weary traveller might not rest easy here. However, this is the least of your worries. Rooms appear clean at surface level, until you walk into to a stale aroma of meth that never fades. Moreover, one evening, I found myself in reception with 3 individuals obviously high off their faces negotiating with the staff for a night's stay with their spare cash... Unbelievably to their success. The owner is such a kind and helpful man, it is disappointing to see how he is not holding up high standards on what could be an accommodating place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r286969975-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>286969975</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>My stay exper</t>
+  </si>
+  <si>
+    <t>Asked for downstairs smoking was put upstairs non smoking.  Floors were so nasty and felt wet would not let my pet lay on it so I took a sheet off each bed to lay down over it and had to keep shoes on at all times.  bathroom light went out they never bothered to change. soap was in room but upon request would not give any shampoo or other items   phone in room did not work nor even had any buttons.  Why did they even keep? Allow pets but have nowhere except other business s property to allow pets to relieve themselves... Never againMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas - Farmers Branch, responded to this reviewResponded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Asked for downstairs smoking was put upstairs non smoking.  Floors were so nasty and felt wet would not let my pet lay on it so I took a sheet off each bed to lay down over it and had to keep shoes on at all times.  bathroom light went out they never bothered to change. soap was in room but upon request would not give any shampoo or other items   phone in room did not work nor even had any buttons.  Why did they even keep? Allow pets but have nowhere except other business s property to allow pets to relieve themselves... Never againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r263144072-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>263144072</t>
+  </si>
+  <si>
+    <t>04/01/2015</t>
+  </si>
+  <si>
+    <t>FILTHY!!!</t>
+  </si>
+  <si>
+    <t>I knew it wasn't going to be a great motel but the rooms could have at least been clean. There was old food under the bed and pubic hair in the toilet. The toilet paper was wet, I'm guessing cause it fell in toilet. When I went down stairs to complain the person who was helping me was extremely rude! I agree with some of the people ahead of me these motel's should charge 15$.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r262186316-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>262186316</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>Business owner</t>
+  </si>
+  <si>
+    <t>My wife and I was in Dallas for business and stayed in the room for sleep and that's all cause it had a musky odor and housekeeping sucked. We had a phone that didn't work and had to ask for towels cause wasn't but 1 in the room. If you are looking for a place to stay around Dallas this is DEFINITELY NOT THE PLACE!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r256835534-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>256835534</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>It's a Motel 6</t>
+  </si>
+  <si>
+    <t>Yeah, it's a Motel 6, so what do you expect?Decent  enough size room with more outlets than average and adequate lighting.Nice TV with good selection of channels and decent reception.OK tub with plenty of hot water.  Wifi cut out from time to time but was otherwise OK and free.  Took a while to pry the password out of the front desk.  No microwave, no fridge, no coffee service.  But was downstairs in lobby.Filthy carpets.  Somewhat flaky maid service.  Thin walls.Good freeway access.   Michael's Restaurant next door is NOT closed despite what it says on the website.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r245573391-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>245573391</t>
+  </si>
+  <si>
+    <t>12/22/2014</t>
+  </si>
+  <si>
+    <t>Okay Place to Stay in Farmer's Branch if You're Not Picky</t>
+  </si>
+  <si>
+    <t>Considering some of the places that I've stayed in the Dallas area, this place wasn't all that bad.  It's Motel 6, so you definitely get what you pay for.  My room was dated (but clean), comfortable, and easy enough to find.  There was a restaurant right across the parking lot that stayed open pretty late.  This place is not too far from Dallas Love Field airport, but doesn't suffer from some of the other issues that hotels closer to it have (i.e. pimps and prostitutes).  Ask for a room on the back side of the hotel to mute the interstate traffic (for all of you light sleepers out there).  If you're just staying the night and you're not too picky, definitely give this place a try!  Trust me, you COULD do a lot worse.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Considering some of the places that I've stayed in the Dallas area, this place wasn't all that bad.  It's Motel 6, so you definitely get what you pay for.  My room was dated (but clean), comfortable, and easy enough to find.  There was a restaurant right across the parking lot that stayed open pretty late.  This place is not too far from Dallas Love Field airport, but doesn't suffer from some of the other issues that hotels closer to it have (i.e. pimps and prostitutes).  Ask for a room on the back side of the hotel to mute the interstate traffic (for all of you light sleepers out there).  If you're just staying the night and you're not too picky, definitely give this place a try!  Trust me, you COULD do a lot worse.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r227906965-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>227906965</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>Great Place to sleep and great customer service</t>
+  </si>
+  <si>
+    <t>This is a place where you can actual get a good night sleep and feel safe.  The location is excellent.   I visited other motels in the area and I selected Motel 6 because it was clean and excellent customer service.  Yes there was construction but you do not hear it in the room.  The price is good. Its good to go to bed at night knowing there is security. Mr Daniel in the office is great.  He was very helpful.   The maids were niceand sweet and did a good job of cleaning each day. Good price.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r223527504-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>223527504</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Do not come to this hotel...poor room n poor service trust me...</t>
+  </si>
+  <si>
+    <t>I came to farmers branch expecting something descent....why a mistake I made...got to the hotel n checked in n once came to my room trash was already on the floor it wasn't cleaned...then moved to a second room it stink like a skunk n front desk called security on me cuz I wanted something else....dey disrespected me so bad security n front desk...this my last time n I mean last time coming here n pray don't nobdy else come here cuz it's poor service n rooms stank so badddd....they wanted to call police in me cuz I couldn't take the smell....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r193730490-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>193730490</t>
+  </si>
+  <si>
+    <t>02/10/2014</t>
+  </si>
+  <si>
+    <t>Pros and Cons! Judge for yourself</t>
+  </si>
+  <si>
+    <t>Not the best area for a woman alone so I'm glad my husband was with me. We had a dog with us so that's why we picked this place. Also it was close to where we needed to be the next morning. There is an iron but no ironing board. The heater thermostat apparently didn't work right. This is February and it's cold and we had the air conditioner on!  We tried the heat but we got so hot we thought we would cool the room off. It never got cold enough to turn it off!  I can't say I understand that. The room had a functioning refrigerator and microwave. The bathtub is old but the room seemed clean enough. No signs of any type of infestations. We did find somebody's dirty sock under the edge of the bed skirt though. There was only one functioning outlet in the room that wasn't already used for a lamp. There was a hair dryer in the vanity area. The room was small with two double beds. The sheets and pillows were ok. The towels were old and should be replaced but they did the job. The hot water in the shower was strange also. I got it to the temp I wanted and then it would cool off a little and then right back to the right temp. There was plenty of hot water for three people's showers and my husband shaving....Not the best area for a woman alone so I'm glad my husband was with me. We had a dog with us so that's why we picked this place. Also it was close to where we needed to be the next morning. There is an iron but no ironing board. The heater thermostat apparently didn't work right. This is February and it's cold and we had the air conditioner on!  We tried the heat but we got so hot we thought we would cool the room off. It never got cold enough to turn it off!  I can't say I understand that. The room had a functioning refrigerator and microwave. The bathtub is old but the room seemed clean enough. No signs of any type of infestations. We did find somebody's dirty sock under the edge of the bed skirt though. There was only one functioning outlet in the room that wasn't already used for a lamp. There was a hair dryer in the vanity area. The room was small with two double beds. The sheets and pillows were ok. The towels were old and should be replaced but they did the job. The hot water in the shower was strange also. I got it to the temp I wanted and then it would cool off a little and then right back to the right temp. There was plenty of hot water for three people's showers and my husband shaving.  The price was about $47 including tax so it met the needs at the time. The internet worked but seemed a little slow but that's to be expected with that many people in one location.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Not the best area for a woman alone so I'm glad my husband was with me. We had a dog with us so that's why we picked this place. Also it was close to where we needed to be the next morning. There is an iron but no ironing board. The heater thermostat apparently didn't work right. This is February and it's cold and we had the air conditioner on!  We tried the heat but we got so hot we thought we would cool the room off. It never got cold enough to turn it off!  I can't say I understand that. The room had a functioning refrigerator and microwave. The bathtub is old but the room seemed clean enough. No signs of any type of infestations. We did find somebody's dirty sock under the edge of the bed skirt though. There was only one functioning outlet in the room that wasn't already used for a lamp. There was a hair dryer in the vanity area. The room was small with two double beds. The sheets and pillows were ok. The towels were old and should be replaced but they did the job. The hot water in the shower was strange also. I got it to the temp I wanted and then it would cool off a little and then right back to the right temp. There was plenty of hot water for three people's showers and my husband shaving....Not the best area for a woman alone so I'm glad my husband was with me. We had a dog with us so that's why we picked this place. Also it was close to where we needed to be the next morning. There is an iron but no ironing board. The heater thermostat apparently didn't work right. This is February and it's cold and we had the air conditioner on!  We tried the heat but we got so hot we thought we would cool the room off. It never got cold enough to turn it off!  I can't say I understand that. The room had a functioning refrigerator and microwave. The bathtub is old but the room seemed clean enough. No signs of any type of infestations. We did find somebody's dirty sock under the edge of the bed skirt though. There was only one functioning outlet in the room that wasn't already used for a lamp. There was a hair dryer in the vanity area. The room was small with two double beds. The sheets and pillows were ok. The towels were old and should be replaced but they did the job. The hot water in the shower was strange also. I got it to the temp I wanted and then it would cool off a little and then right back to the right temp. There was plenty of hot water for three people's showers and my husband shaving.  The price was about $47 including tax so it met the needs at the time. The internet worked but seemed a little slow but that's to be expected with that many people in one location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r177292176-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>177292176</t>
+  </si>
+  <si>
+    <t>09/15/2013</t>
+  </si>
+  <si>
+    <t>Nice Rooms, walk to DART</t>
+  </si>
+  <si>
+    <t>This motel was a LaQuinta until July 2013 when it became a Motel 6.  From the outside it has a very dumpy appearance.  But the room on the inside was very nice.  Large, with two beds and sharp flat screen TV (after I adjusted the wires to make it work) with 26 channels.  The bathroom was small with a very small vanity; it would be tight for two people.  There was a table with two mismatched chairs.  The lighting is excellent.  Black out drapes were very effective, much better than high end hotels.  The motel still retains the LaQuinta beds and bedding which were very nice.  AC worked great, which was a relief since it was 105 when I was there.  There was a crystal clear large pool, unfortunately there were a lot of smokers around it.  Michaels, a sports bar next door, had moderately priced meals, otherwise you have to drive to get food.  During the work week, the area is very congested, but you do have easy access to highway.  I got my room for $36 a night, which was a bargain.  The only real negative is the exterior of the hotel is falling apart.  Bolts are missing to connect stairwells to the second floor, beams are rotting and it looks run down. The interiors are fine, but the exterior needs a lot of work.  Rooms do not contain a fridge, microwave or safe, and breakfast is no...This motel was a LaQuinta until July 2013 when it became a Motel 6.  From the outside it has a very dumpy appearance.  But the room on the inside was very nice.  Large, with two beds and sharp flat screen TV (after I adjusted the wires to make it work) with 26 channels.  The bathroom was small with a very small vanity; it would be tight for two people.  There was a table with two mismatched chairs.  The lighting is excellent.  Black out drapes were very effective, much better than high end hotels.  The motel still retains the LaQuinta beds and bedding which were very nice.  AC worked great, which was a relief since it was 105 when I was there.  There was a crystal clear large pool, unfortunately there were a lot of smokers around it.  Michaels, a sports bar next door, had moderately priced meals, otherwise you have to drive to get food.  During the work week, the area is very congested, but you do have easy access to highway.  I got my room for $36 a night, which was a bargain.  The only real negative is the exterior of the hotel is falling apart.  Bolts are missing to connect stairwells to the second floor, beams are rotting and it looks run down. The interiors are fine, but the exterior needs a lot of work.  Rooms do not contain a fridge, microwave or safe, and breakfast is no longer served.  It’s a Motel 6 after all!  It is a 10 minute walk to the Farmers Branch DART station, and then just 30 minutes and you are downtown.  (Day pass is $5).If you are looking for a cheap motel with easy access to downtown, this is the place.  The rooms are nicer than your average Motel 6 and the rates are excellent.  I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>This motel was a LaQuinta until July 2013 when it became a Motel 6.  From the outside it has a very dumpy appearance.  But the room on the inside was very nice.  Large, with two beds and sharp flat screen TV (after I adjusted the wires to make it work) with 26 channels.  The bathroom was small with a very small vanity; it would be tight for two people.  There was a table with two mismatched chairs.  The lighting is excellent.  Black out drapes were very effective, much better than high end hotels.  The motel still retains the LaQuinta beds and bedding which were very nice.  AC worked great, which was a relief since it was 105 when I was there.  There was a crystal clear large pool, unfortunately there were a lot of smokers around it.  Michaels, a sports bar next door, had moderately priced meals, otherwise you have to drive to get food.  During the work week, the area is very congested, but you do have easy access to highway.  I got my room for $36 a night, which was a bargain.  The only real negative is the exterior of the hotel is falling apart.  Bolts are missing to connect stairwells to the second floor, beams are rotting and it looks run down. The interiors are fine, but the exterior needs a lot of work.  Rooms do not contain a fridge, microwave or safe, and breakfast is no...This motel was a LaQuinta until July 2013 when it became a Motel 6.  From the outside it has a very dumpy appearance.  But the room on the inside was very nice.  Large, with two beds and sharp flat screen TV (after I adjusted the wires to make it work) with 26 channels.  The bathroom was small with a very small vanity; it would be tight for two people.  There was a table with two mismatched chairs.  The lighting is excellent.  Black out drapes were very effective, much better than high end hotels.  The motel still retains the LaQuinta beds and bedding which were very nice.  AC worked great, which was a relief since it was 105 when I was there.  There was a crystal clear large pool, unfortunately there were a lot of smokers around it.  Michaels, a sports bar next door, had moderately priced meals, otherwise you have to drive to get food.  During the work week, the area is very congested, but you do have easy access to highway.  I got my room for $36 a night, which was a bargain.  The only real negative is the exterior of the hotel is falling apart.  Bolts are missing to connect stairwells to the second floor, beams are rotting and it looks run down. The interiors are fine, but the exterior needs a lot of work.  Rooms do not contain a fridge, microwave or safe, and breakfast is no longer served.  It’s a Motel 6 after all!  It is a 10 minute walk to the Farmers Branch DART station, and then just 30 minutes and you are downtown.  (Day pass is $5).If you are looking for a cheap motel with easy access to downtown, this is the place.  The rooms are nicer than your average Motel 6 and the rates are excellent.  I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r166996545-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>166996545</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r166223923-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>166223923</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>Great service and a clean hotel.</t>
+  </si>
+  <si>
+    <t>We stayed here after a bad experience at another motel.  The room was clean and reasonably decorated for a lower priced room.  The employees were fantastic and accommodated all of our requests (even for a late check out).  Breakfast was a standard La Quinta complimentary breakfast with waffles.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r165439884-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>165439884</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>Not bad for a cheap hotel</t>
+  </si>
+  <si>
+    <t>The bed was very comfortable but the shower collected water in the bottom, like the stopper was in but it wasn't. The AC worked well. We did not try the pool but it is an outside one in case you were wondering. One of the other problems I had was on the bed there is some sort of metal lever hanging out and I hit my ankle on it numerous times and it hurt low heck! Not sure why they think its ok to leave that sticking out there. The breakfast was not bad: waffles, bagels, cereal, juice, yogurt, and some other items.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r164290891-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>164290891</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>"Don't take cash sir"</t>
+  </si>
+  <si>
+    <t>"Dont take cash...".  An assumption, since I always pay with credit card, and a returns member.  But arriving about 11:30 pm must denote a cash only customer for this property. Not really, just a late arrival. Sort of found that greeting strange from the front desk.Not quite sure about security since my license plate was contorted the next morning....rental car with Ohio plate. Guess that's a bad idea for those still fighting the war between the states.The room was just ok, older property, missing the tv remote, but since it was so late, I didn't watch tv.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r159754728-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>159754728</t>
+  </si>
+  <si>
+    <t>05/05/2013</t>
+  </si>
+  <si>
+    <t>Good, inexpensive hotel</t>
+  </si>
+  <si>
+    <t>I travel with a medium size dog (50lbs) and often find myself at La Quintas because of their super friendly pet policy. That being said, the 4 star rating is in comparison to other La Quintas and inexpensive hotels. The staff here was friendly, the beds were very comfortable, and the location was ideal. The rooms have doors that open directly to the sidewalk, which I prefer with my dog, and there was a large grass patch in the back of the hotel ideal for those early morning walks. We were always 15-20min from anything we wanted to do in Dallas, including an awesome park (Sam Houston Trail Park) where we could take our dog for a long walk.No it wasn't the most modern hotel (old shower curtains, stained tubs, mismatching chairs), but I wasn't looking for a resort, just somewhere to lay my head at the end of the day.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I travel with a medium size dog (50lbs) and often find myself at La Quintas because of their super friendly pet policy. That being said, the 4 star rating is in comparison to other La Quintas and inexpensive hotels. The staff here was friendly, the beds were very comfortable, and the location was ideal. The rooms have doors that open directly to the sidewalk, which I prefer with my dog, and there was a large grass patch in the back of the hotel ideal for those early morning walks. We were always 15-20min from anything we wanted to do in Dallas, including an awesome park (Sam Houston Trail Park) where we could take our dog for a long walk.No it wasn't the most modern hotel (old shower curtains, stained tubs, mismatching chairs), but I wasn't looking for a resort, just somewhere to lay my head at the end of the day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r159169080-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>159169080</t>
+  </si>
+  <si>
+    <t>04/29/2013</t>
+  </si>
+  <si>
+    <t>good inexpensive room</t>
+  </si>
+  <si>
+    <t>We stay at this hotel everytime we go to our granddaughters' softball games.  It is clean and we feel safe there.  We are older so we are very concerned with safety.  There are no frills, but an inexpensive place to sleep on comfortable beds.  The breakfast items are limited, but for the price we pay, we are very pleased with the hotel.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r157880576-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>157880576</t>
+  </si>
+  <si>
+    <t>04/15/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r147120341-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>147120341</t>
+  </si>
+  <si>
+    <t>12/10/2012</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r146731087-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>146731087</t>
+  </si>
+  <si>
+    <t>12/03/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r146220710-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>146220710</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r141581368-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>141581368</t>
+  </si>
+  <si>
+    <t>09/29/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel --- Nice location</t>
+  </si>
+  <si>
+    <t>This location is convenient to many different dining options and shopping.  The staff were pleasant and responsive.  The rooms were very clean, comfortable, and modern.  This location is great for families, business travellers, and road warriors all the same.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r138160983-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>138160983</t>
+  </si>
+  <si>
+    <t>08/23/2012</t>
+  </si>
+  <si>
+    <t>I always stay here...</t>
+  </si>
+  <si>
+    <t>I NEVER have any issues staying here.  Always clean, always VERY friendly!  The only issue is not being able to turn the a/c fan on continuously while the air is running.  It wakes me up when it kicks on &amp; off.  Not a huge deal though....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r137687363-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>137687363</t>
+  </si>
+  <si>
+    <t>08/19/2012</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>We stayed august 17 and 18 and went to hurricane harbor and nrh2o water park and really enjoyed the room and workers was very friendly and helpful  and breakfast  was good texas waffles and lot of other things to chose from clean  breakfast area and lobby nice pool  would stay again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r134034255-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>134034255</t>
+  </si>
+  <si>
+    <t>07/10/2012</t>
+  </si>
+  <si>
+    <t>Nothing Spectacular</t>
+  </si>
+  <si>
+    <t>This hotel is ok. Nothing spectacular about it. We stay in it often, but like I said, nothing special. Does have VERY comfortable beds!</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r132646675-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>132646675</t>
+  </si>
+  <si>
+    <t>06/24/2012</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed for 4 nights it was great free wifi clean room ac on when I arrived great for my budget would stay again </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r132313212-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>132313212</t>
+  </si>
+  <si>
+    <t>06/19/2012</t>
+  </si>
+  <si>
+    <t>Enjoyed the Stay.</t>
+  </si>
+  <si>
+    <t>I'm a Mover for Unite Van Lines. I drive long  Days to get from one state to another. And sometimes I get to where I got to go and I Unload familys Homes. I'm tiered from Driving and Unloading I know when I get to the Hotel I'm going to get a Warm shower and get a Good Nights Sleep.. Wonderful soft beds. Thank you LaQuinta... I joined your rewards program. I know I'm going to return...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r126672267-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>126672267</t>
+  </si>
+  <si>
+    <t>03/26/2012</t>
+  </si>
+  <si>
+    <t>Maybe Not</t>
+  </si>
+  <si>
+    <t>Although the room looked like it had been updated, it fell short of La Quinta standards. The room itself was fairly large and, except for the carpet, looked clean though it didn' 'feel' clean. The bedspreads were the older kind that don't get washed after every guest. The bathroom was teeny-tiny with rust on fixtures and part of the door knob falling off. This is a motor lodge kind of place and maybe this is why it felt like such and unpleasant experience. Everytime someone walked past our room, you could hear their whole conversation. The breakfast area is very small and there were crumbs everywhere. There was trash and crumbs on the floor and there was only one employee taking care of the front desk and the breakfast area. He was working hard to keep up and was very friendly, though.We were so unhappy with this place we checked out two days early.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Although the room looked like it had been updated, it fell short of La Quinta standards. The room itself was fairly large and, except for the carpet, looked clean though it didn' 'feel' clean. The bedspreads were the older kind that don't get washed after every guest. The bathroom was teeny-tiny with rust on fixtures and part of the door knob falling off. This is a motor lodge kind of place and maybe this is why it felt like such and unpleasant experience. Everytime someone walked past our room, you could hear their whole conversation. The breakfast area is very small and there were crumbs everywhere. There was trash and crumbs on the floor and there was only one employee taking care of the front desk and the breakfast area. He was working hard to keep up and was very friendly, though.We were so unhappy with this place we checked out two days early.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r126110964-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>126110964</t>
+  </si>
+  <si>
+    <t>03/14/2012</t>
+  </si>
+  <si>
+    <t>Nice stay for the price</t>
+  </si>
+  <si>
+    <t>I had an interview in the area so I stayed here for a night. This is a motel style location. All I required is that the room is clean and everything is in working condition and it was.  The TV service did go out for a little bit but it was repaired once we got back from dinner.  The wifi worked smoothly with no issues.  The breakfast in the morning was decent.  There was cereal, bagels, toast, oatmeal, yogurt, eggs (uncooked), coffee, juice and most notably a waffle maker.  The only word of caution that I have is that the water temperature in the shower will change if someone flushes the toilet next door.  I learned that the hard way.  Overall, it was a nice stay for the rate.  I’d return.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had an interview in the area so I stayed here for a night. This is a motel style location. All I required is that the room is clean and everything is in working condition and it was.  The TV service did go out for a little bit but it was repaired once we got back from dinner.  The wifi worked smoothly with no issues.  The breakfast in the morning was decent.  There was cereal, bagels, toast, oatmeal, yogurt, eggs (uncooked), coffee, juice and most notably a waffle maker.  The only word of caution that I have is that the water temperature in the shower will change if someone flushes the toilet next door.  I learned that the hard way.  Overall, it was a nice stay for the rate.  I’d return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r118626274-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>118626274</t>
+  </si>
+  <si>
+    <t>09/26/2011</t>
+  </si>
+  <si>
+    <t>LAQ Farmers Branch acceptable</t>
+  </si>
+  <si>
+    <t>I just stayed where for a quick trip to Denton and I would stay again.  Your very basic LAQ.  Nothing fancy,  but a clean comfortable bed,  hot shower,  room didn't smell and basic free breakfast.  Low price and easy access on and off I 35 (E) just north of Dallas.  They have nice flat screens so it may be considered or listed as "upgraded".  It's not new,  but it did the trick for me and the price was right.  No computer center,  but they have WIFI.  I didn't see anything worth mentioning within walking distance.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r84808830-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>84808830</t>
+  </si>
+  <si>
+    <t>10/25/2010</t>
+  </si>
+  <si>
+    <t>Okay for the price</t>
+  </si>
+  <si>
+    <t>This was a one-off stopping point to our trip towards Austin.Good points: relatively clean, decent breakfast, friendly staff, free wi-fi.Not-so-good points: old style toilet (round bowl) was barely large enough (and my posterior is NOT large), location was not near any decent restaurants within walking distance (there was one right next door, but it was only good for fried food or a few drinks).However, the price was cheap and all we really needed was a bed for the night so I'm giving it a thumbs up - but they really should upgrade the plumbing.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r65226422-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>65226422</t>
+  </si>
+  <si>
+    <t>05/24/2010</t>
+  </si>
+  <si>
+    <t>Great Value!</t>
+  </si>
+  <si>
+    <t>Staff here was EXCELLENT! Rooms a little old and tired but clean. Dog friendly, in fact desk clerk gave us a room close to the grassy area as we traveled with our dog. Breakfast  was tasty and free. Neighborhood was good, I felt safe even when taking my dog out late at night. Internet was lightening fast. TV lacked a huge variety of channels but hey it's not home. I highly recommend!</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r51827140-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>51827140</t>
+  </si>
+  <si>
+    <t>12/24/2009</t>
+  </si>
+  <si>
+    <t>Wish it was cleaner</t>
+  </si>
+  <si>
+    <t>It is an older hotel that needs some TLC.Outside walkways could use some cleaning and paint. Our room small but comfortable.Carpet could be replaced. Bathroom was big but the ceiling leaked. I heard water dripping when the people above us took a shower. You could tell it was not the first time. I notified the front desk. They did e-mail us later to tell us that they had taken the room out of service and where repairing the ceiling.The breakfast room was very small. Just a little area in the Lobby. Crowded and not set up very good. People kept wandering looking for stuff and when things ran out the front desk person had to find the time to refill in between checking people out and answering the phone. Price was HIGH for what we got.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>It is an older hotel that needs some TLC.Outside walkways could use some cleaning and paint. Our room small but comfortable.Carpet could be replaced. Bathroom was big but the ceiling leaked. I heard water dripping when the people above us took a shower. You could tell it was not the first time. I notified the front desk. They did e-mail us later to tell us that they had taken the room out of service and where repairing the ceiling.The breakfast room was very small. Just a little area in the Lobby. Crowded and not set up very good. People kept wandering looking for stuff and when things ran out the front desk person had to find the time to refill in between checking people out and answering the phone. Price was HIGH for what we got.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r23618427-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>23618427</t>
+  </si>
+  <si>
+    <t>01/16/2009</t>
+  </si>
+  <si>
+    <t>Dangerous place and awful staff. Do not stay here !!</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!
+STAFF
+This hotel is very unsafe and hotel management is evil. I got my car broken into IN THEIR PARKING LOT 30 feet from my room and the management not only do not give a damn that their hotel guest was victim of crime on THEIR PROPERTY, they have the nerve to charge me for the stay.  They even tried to hang up on me when I complained and demanded a refund. They did not even offer to clean the broken glass from my car. *I* had to call them on my own and the maintenance guy did not even clean out all the glass fully! This is a bunch of extremely irresponsible people. 
+I did not realized they don't have security patrolling at night like many other hotels. The management and staff are also giving "fake niceness". They pretend to be nice but they are actually not. 
+zInitially I thought it was just this branch that was the problem. I called their *corporate office* which is in within the same DFW area (surprise! surprise!), they gave exactly the same attitude, they don't care about the safety of their guest, they just want your money, and they had the nerve to tell me they are not going to take any responsibility and the branch manager did the right thing to me! The corporate office also tried to hang up on me! They don't even care I...DO NOT STAY HERE!STAFFThis hotel is very unsafe and hotel management is evil. I got my car broken into IN THEIR PARKING LOT 30 feet from my room and the management not only do not give a damn that their hotel guest was victim of crime on THEIR PROPERTY, they have the nerve to charge me for the stay.  They even tried to hang up on me when I complained and demanded a refund. They did not even offer to clean the broken glass from my car. *I* had to call them on my own and the maintenance guy did not even clean out all the glass fully! This is a bunch of extremely irresponsible people. I did not realized they don't have security patrolling at night like many other hotels. The management and staff are also giving "fake niceness". They pretend to be nice but they are actually not. zInitially I thought it was just this branch that was the problem. I called their *corporate office* which is in within the same DFW area (surprise! surprise!), they gave exactly the same attitude, they don't care about the safety of their guest, they just want your money, and they had the nerve to tell me they are not going to take any responsibility and the branch manager did the right thing to me! The corporate office also tried to hang up on me! They don't even care I am complaining to Beeter Business Burea (BBB) on them. This mentality is carried at their whole company!I have travelled extensively and had never seen such an irresponsible hotel business chain.I WILL NOT stay at this chain hotel again. I had spread the word out to people I know and those on the streets already. Many people that heard my story are appalled by this and will not be staying here either.Boycott La Quintas, You have many other choices! Do not patrolize a business that doesn't care their guest or property are attacked on their premise! You are the customer you have to right to be safe in a hotel !MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!
+STAFF
+This hotel is very unsafe and hotel management is evil. I got my car broken into IN THEIR PARKING LOT 30 feet from my room and the management not only do not give a damn that their hotel guest was victim of crime on THEIR PROPERTY, they have the nerve to charge me for the stay.  They even tried to hang up on me when I complained and demanded a refund. They did not even offer to clean the broken glass from my car. *I* had to call them on my own and the maintenance guy did not even clean out all the glass fully! This is a bunch of extremely irresponsible people. 
+I did not realized they don't have security patrolling at night like many other hotels. The management and staff are also giving "fake niceness". They pretend to be nice but they are actually not. 
+zInitially I thought it was just this branch that was the problem. I called their *corporate office* which is in within the same DFW area (surprise! surprise!), they gave exactly the same attitude, they don't care about the safety of their guest, they just want your money, and they had the nerve to tell me they are not going to take any responsibility and the branch manager did the right thing to me! The corporate office also tried to hang up on me! They don't even care I...DO NOT STAY HERE!STAFFThis hotel is very unsafe and hotel management is evil. I got my car broken into IN THEIR PARKING LOT 30 feet from my room and the management not only do not give a damn that their hotel guest was victim of crime on THEIR PROPERTY, they have the nerve to charge me for the stay.  They even tried to hang up on me when I complained and demanded a refund. They did not even offer to clean the broken glass from my car. *I* had to call them on my own and the maintenance guy did not even clean out all the glass fully! This is a bunch of extremely irresponsible people. I did not realized they don't have security patrolling at night like many other hotels. The management and staff are also giving "fake niceness". They pretend to be nice but they are actually not. zInitially I thought it was just this branch that was the problem. I called their *corporate office* which is in within the same DFW area (surprise! surprise!), they gave exactly the same attitude, they don't care about the safety of their guest, they just want your money, and they had the nerve to tell me they are not going to take any responsibility and the branch manager did the right thing to me! The corporate office also tried to hang up on me! They don't even care I am complaining to Beeter Business Burea (BBB) on them. This mentality is carried at their whole company!I have travelled extensively and had never seen such an irresponsible hotel business chain.I WILL NOT stay at this chain hotel again. I had spread the word out to people I know and those on the streets already. Many people that heard my story are appalled by this and will not be staying here either.Boycott La Quintas, You have many other choices! Do not patrolize a business that doesn't care their guest or property are attacked on their premise! You are the customer you have to right to be safe in a hotel !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r17104914-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>17104914</t>
+  </si>
+  <si>
+    <t>06/21/2008</t>
+  </si>
+  <si>
+    <t>Nice Hotel when your have a tight budget</t>
+  </si>
+  <si>
+    <t>I stay here with my family (wife and 2 teen girls) for 1 night when we decided to spend a weekend in Dallas. For about US $ 70 dollars we got a very clean room with two queen beds, a nice continental breakfast, free parking in front of the room and the usual amenities (cable, Internet, clean small swimming pool, etc.). In its category - a place to rest in a proper fashion - is a above average hotel.Service is very good. For instance, I got a problem with my bathroom (shower was not working) and they change my room real quick and gave me a complimentary premium on-demand movie for free.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>I stay here with my family (wife and 2 teen girls) for 1 night when we decided to spend a weekend in Dallas. For about US $ 70 dollars we got a very clean room with two queen beds, a nice continental breakfast, free parking in front of the room and the usual amenities (cable, Internet, clean small swimming pool, etc.). In its category - a place to rest in a proper fashion - is a above average hotel.Service is very good. For instance, I got a problem with my bathroom (shower was not working) and they change my room real quick and gave me a complimentary premium on-demand movie for free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r16353532-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>16353532</t>
+  </si>
+  <si>
+    <t>05/23/2008</t>
+  </si>
+  <si>
+    <t>Great Place! Great Staff</t>
+  </si>
+  <si>
+    <t>The staff was so nice everytime I walked in the door. The breakfast was good but just no hot food like eggs and bacon. But it was free! The room was very clean and everything worked. The price was good for the area. The hotel is off the highway and I could get downtown very quickly. I will stay there again if I am in the area!</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r8483661-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>8483661</t>
+  </si>
+  <si>
+    <t>08/22/2007</t>
+  </si>
+  <si>
+    <t>Online Mistake! Avoid if you can...</t>
+  </si>
+  <si>
+    <t>I havent written a review before, but this place inspired me to do so.  The location is very sketchy---a warehouse/industrial area, and there are a lot of not so friendly people milling around the parking lot throughout the night. Teens on bikes, people just sitting in cars. It took 15 minutes to check in (and I had a reservation).  The room was clean, but was very ragged. The carpet and parts of the walls were stained.  The noise from people in the parking lot kept me up, and another noise early in the morning turned out to be a rather large insect in my room. I skipped my 2nd night despite already prepaying. (It may be cheap, but trust me, it isn't worth it).MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>I havent written a review before, but this place inspired me to do so.  The location is very sketchy---a warehouse/industrial area, and there are a lot of not so friendly people milling around the parking lot throughout the night. Teens on bikes, people just sitting in cars. It took 15 minutes to check in (and I had a reservation).  The room was clean, but was very ragged. The carpet and parts of the walls were stained.  The noise from people in the parking lot kept me up, and another noise early in the morning turned out to be a rather large insect in my room. I skipped my 2nd night despite already prepaying. (It may be cheap, but trust me, it isn't worth it).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r8419458-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>8419458</t>
+  </si>
+  <si>
+    <t>08/13/2007</t>
+  </si>
+  <si>
+    <t>Very good hotel for the price!</t>
+  </si>
+  <si>
+    <t>This hotel was overall a very nice stay. Here are some of the pros and cons I found:
+Pros:
+Price was good, hotwire @ 40.00/night
+Hotel is easily located from the highway
+Staff was very friendly, in fact more so than in most 4 star hotels. I was surprised by this and will be a main factor for staying there again.
+Room was always clean and well kept. We messed it up pretty bad a few nights with stuff everywhere; and it was straightened up perfectly when we returned from the conference.
+The pool was small but not highly used and the temperature was perfect (its outdoor only though) so this was nice.
+The breakfast was good (waffles, wrapped pastries, cereal, some fresh fruits, juice, and coffee) 
+Cons:
+It is an outside entry motel. We didn't see too many questionable people around, but I am always more leary of them. This would be a fine choice though if you even consider outside entry as an option because the blinds absolutely block view of the room, the doors are think and metal and do have a bolt.
+Getting off the highway is easy to this location, getting back on it can be a little tougher. We tried for days to follow the signs to 635E and never got to it, but I am sure it can be done. Just make sure to ask the desk or get a map. 
+Overall, the...This hotel was overall a very nice stay. Here are some of the pros and cons I found:Pros:Price was good, hotwire @ 40.00/nightHotel is easily located from the highwayStaff was very friendly, in fact more so than in most 4 star hotels. I was surprised by this and will be a main factor for staying there again.Room was always clean and well kept. We messed it up pretty bad a few nights with stuff everywhere; and it was straightened up perfectly when we returned from the conference.The pool was small but not highly used and the temperature was perfect (its outdoor only though) so this was nice.The breakfast was good (waffles, wrapped pastries, cereal, some fresh fruits, juice, and coffee) Cons:It is an outside entry motel. We didn't see too many questionable people around, but I am always more leary of them. This would be a fine choice though if you even consider outside entry as an option because the blinds absolutely block view of the room, the doors are think and metal and do have a bolt.Getting off the highway is easy to this location, getting back on it can be a little tougher. We tried for days to follow the signs to 635E and never got to it, but I am sure it can be done. Just make sure to ask the desk or get a map. Overall, the 2 cons are very minor. This was a great stay and would love to stay here again. North Dallas with ample shopping and dining is just 10 minutes away, literally about 4 highway exits, but this area will be $40-50 a night where 4 exits away will be $100 minimum. Its worth the short drive and the savings will allow for more spending at the Galleria (huge mall nearby worth the visit as well)MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was overall a very nice stay. Here are some of the pros and cons I found:
+Pros:
+Price was good, hotwire @ 40.00/night
+Hotel is easily located from the highway
+Staff was very friendly, in fact more so than in most 4 star hotels. I was surprised by this and will be a main factor for staying there again.
+Room was always clean and well kept. We messed it up pretty bad a few nights with stuff everywhere; and it was straightened up perfectly when we returned from the conference.
+The pool was small but not highly used and the temperature was perfect (its outdoor only though) so this was nice.
+The breakfast was good (waffles, wrapped pastries, cereal, some fresh fruits, juice, and coffee) 
+Cons:
+It is an outside entry motel. We didn't see too many questionable people around, but I am always more leary of them. This would be a fine choice though if you even consider outside entry as an option because the blinds absolutely block view of the room, the doors are think and metal and do have a bolt.
+Getting off the highway is easy to this location, getting back on it can be a little tougher. We tried for days to follow the signs to 635E and never got to it, but I am sure it can be done. Just make sure to ask the desk or get a map. 
+Overall, the...This hotel was overall a very nice stay. Here are some of the pros and cons I found:Pros:Price was good, hotwire @ 40.00/nightHotel is easily located from the highwayStaff was very friendly, in fact more so than in most 4 star hotels. I was surprised by this and will be a main factor for staying there again.Room was always clean and well kept. We messed it up pretty bad a few nights with stuff everywhere; and it was straightened up perfectly when we returned from the conference.The pool was small but not highly used and the temperature was perfect (its outdoor only though) so this was nice.The breakfast was good (waffles, wrapped pastries, cereal, some fresh fruits, juice, and coffee) Cons:It is an outside entry motel. We didn't see too many questionable people around, but I am always more leary of them. This would be a fine choice though if you even consider outside entry as an option because the blinds absolutely block view of the room, the doors are think and metal and do have a bolt.Getting off the highway is easy to this location, getting back on it can be a little tougher. We tried for days to follow the signs to 635E and never got to it, but I am sure it can be done. Just make sure to ask the desk or get a map. Overall, the 2 cons are very minor. This was a great stay and would love to stay here again. North Dallas with ample shopping and dining is just 10 minutes away, literally about 4 highway exits, but this area will be $40-50 a night where 4 exits away will be $100 minimum. Its worth the short drive and the savings will allow for more spending at the Galleria (huge mall nearby worth the visit as well)More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1377,2434 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>97</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>135</v>
+      </c>
+      <c r="O16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s">
+        <v>127</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>166</v>
+      </c>
+      <c r="O20" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>166</v>
+      </c>
+      <c r="O21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>173</v>
+      </c>
+      <c r="O22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>179</v>
+      </c>
+      <c r="O23" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K24" t="s">
+        <v>183</v>
+      </c>
+      <c r="L24" t="s">
+        <v>184</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>179</v>
+      </c>
+      <c r="O24" t="s">
+        <v>69</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>186</v>
+      </c>
+      <c r="J25" t="s">
+        <v>187</v>
+      </c>
+      <c r="K25" t="s">
+        <v>188</v>
+      </c>
+      <c r="L25" t="s">
+        <v>189</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>179</v>
+      </c>
+      <c r="O25" t="s">
+        <v>79</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>191</v>
+      </c>
+      <c r="J26" t="s">
+        <v>192</v>
+      </c>
+      <c r="K26" t="s">
+        <v>193</v>
+      </c>
+      <c r="L26" t="s">
+        <v>194</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>195</v>
+      </c>
+      <c r="O26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>197</v>
+      </c>
+      <c r="J27" t="s">
+        <v>198</v>
+      </c>
+      <c r="K27" t="s">
+        <v>199</v>
+      </c>
+      <c r="L27" t="s">
+        <v>200</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>202</v>
+      </c>
+      <c r="J28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K28" t="s">
+        <v>204</v>
+      </c>
+      <c r="L28" t="s">
+        <v>205</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+      <c r="O28" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>207</v>
+      </c>
+      <c r="J29" t="s">
+        <v>208</v>
+      </c>
+      <c r="K29" t="s">
+        <v>209</v>
+      </c>
+      <c r="L29" t="s">
+        <v>210</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>211</v>
+      </c>
+      <c r="O29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>213</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>214</v>
+      </c>
+      <c r="J30" t="s">
+        <v>215</v>
+      </c>
+      <c r="K30" t="s">
+        <v>216</v>
+      </c>
+      <c r="L30" t="s">
+        <v>217</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>211</v>
+      </c>
+      <c r="O30" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>220</v>
+      </c>
+      <c r="J31" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" t="s">
+        <v>222</v>
+      </c>
+      <c r="L31" t="s">
+        <v>223</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>224</v>
+      </c>
+      <c r="O31" t="s">
+        <v>97</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>226</v>
+      </c>
+      <c r="J32" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" t="s">
+        <v>228</v>
+      </c>
+      <c r="L32" t="s">
+        <v>229</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>230</v>
+      </c>
+      <c r="O32" t="s">
+        <v>79</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>231</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>232</v>
+      </c>
+      <c r="J33" t="s">
+        <v>233</v>
+      </c>
+      <c r="K33" t="s">
+        <v>234</v>
+      </c>
+      <c r="L33" t="s">
+        <v>235</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>236</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>237</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>238</v>
+      </c>
+      <c r="J34" t="s">
+        <v>239</v>
+      </c>
+      <c r="K34" t="s">
+        <v>240</v>
+      </c>
+      <c r="L34" t="s">
+        <v>241</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>242</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>244</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>245</v>
+      </c>
+      <c r="J35" t="s">
+        <v>246</v>
+      </c>
+      <c r="K35" t="s">
+        <v>247</v>
+      </c>
+      <c r="L35" t="s">
+        <v>248</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>249</v>
+      </c>
+      <c r="O35" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>252</v>
+      </c>
+      <c r="J36" t="s">
+        <v>253</v>
+      </c>
+      <c r="K36" t="s">
+        <v>254</v>
+      </c>
+      <c r="L36" t="s">
+        <v>255</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>256</v>
+      </c>
+      <c r="O36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>258</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>259</v>
+      </c>
+      <c r="J37" t="s">
+        <v>260</v>
+      </c>
+      <c r="K37" t="s">
+        <v>261</v>
+      </c>
+      <c r="L37" t="s">
+        <v>262</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>263</v>
+      </c>
+      <c r="O37" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>265</v>
+      </c>
+      <c r="J38" t="s">
+        <v>266</v>
+      </c>
+      <c r="K38" t="s">
+        <v>267</v>
+      </c>
+      <c r="L38" t="s">
+        <v>268</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>269</v>
+      </c>
+      <c r="O38" t="s">
+        <v>97</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>271</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>272</v>
+      </c>
+      <c r="J39" t="s">
+        <v>273</v>
+      </c>
+      <c r="K39" t="s">
+        <v>274</v>
+      </c>
+      <c r="L39" t="s">
+        <v>275</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>269</v>
+      </c>
+      <c r="O39" t="s">
+        <v>69</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_571.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_571.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="312">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>jhellner1204</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>teacher h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r329703839-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>Right on the highway with construction site out front bode that one weary traveller might not rest easy here. However, this is the least of your worries. Rooms appear clean at surface level, until you walk into to a stale aroma of meth that never fades. Moreover, one evening, I found myself in reception with 3 individuals obviously high off their faces negotiating with the staff for a night's stay with their spare cash... Unbelievably to their success. The owner is such a kind and helpful man, it is disappointing to see how he is not holding up high standards on what could be an accommodating place. More</t>
   </si>
   <si>
+    <t>eldjudith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r286969975-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>Asked for downstairs smoking was put upstairs non smoking.  Floors were so nasty and felt wet would not let my pet lay on it so I took a sheet off each bed to lay down over it and had to keep shoes on at all times.  bathroom light went out they never bothered to change. soap was in room but upon request would not give any shampoo or other items   phone in room did not work nor even had any buttons.  Why did they even keep? Allow pets but have nowhere except other business s property to allow pets to relieve themselves... Never againMore</t>
   </si>
   <si>
+    <t>Amanda1315</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r263144072-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -258,6 +270,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Tammy N U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r262186316-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>My wife and I was in Dallas for business and stayed in the room for sleep and that's all cause it had a musky odor and housekeeping sucked. We had a phone that didn't work and had to ask for towels cause wasn't but 1 in the room. If you are looking for a place to stay around Dallas this is DEFINITELY NOT THE PLACE!!!!</t>
   </si>
   <si>
+    <t>William D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r256835534-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Rabalicious</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r245573391-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -315,6 +336,9 @@
     <t>Considering some of the places that I've stayed in the Dallas area, this place wasn't all that bad.  It's Motel 6, so you definitely get what you pay for.  My room was dated (but clean), comfortable, and easy enough to find.  There was a restaurant right across the parking lot that stayed open pretty late.  This place is not too far from Dallas Love Field airport, but doesn't suffer from some of the other issues that hotels closer to it have (i.e. pimps and prostitutes).  Ask for a room on the back side of the hotel to mute the interstate traffic (for all of you light sleepers out there).  If you're just staying the night and you're not too picky, definitely give this place a try!  Trust me, you COULD do a lot worse.More</t>
   </si>
   <si>
+    <t>Ethel D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r227906965-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -333,6 +357,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Tlady2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r223527504-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -348,6 +375,9 @@
     <t>I came to farmers branch expecting something descent....why a mistake I made...got to the hotel n checked in n once came to my room trash was already on the floor it wasn't cleaned...then moved to a second room it stink like a skunk n front desk called security on me cuz I wanted something else....dey disrespected me so bad security n front desk...this my last time n I mean last time coming here n pray don't nobdy else come here cuz it's poor service n rooms stank so badddd....they wanted to call police in me cuz I couldn't take the smell....</t>
   </si>
   <si>
+    <t>Lwomack</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r193730490-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -369,6 +399,9 @@
     <t>Not the best area for a woman alone so I'm glad my husband was with me. We had a dog with us so that's why we picked this place. Also it was close to where we needed to be the next morning. There is an iron but no ironing board. The heater thermostat apparently didn't work right. This is February and it's cold and we had the air conditioner on!  We tried the heat but we got so hot we thought we would cool the room off. It never got cold enough to turn it off!  I can't say I understand that. The room had a functioning refrigerator and microwave. The bathtub is old but the room seemed clean enough. No signs of any type of infestations. We did find somebody's dirty sock under the edge of the bed skirt though. There was only one functioning outlet in the room that wasn't already used for a lamp. There was a hair dryer in the vanity area. The room was small with two double beds. The sheets and pillows were ok. The towels were old and should be replaced but they did the job. The hot water in the shower was strange also. I got it to the temp I wanted and then it would cool off a little and then right back to the right temp. There was plenty of hot water for three people's showers and my husband shaving....Not the best area for a woman alone so I'm glad my husband was with me. We had a dog with us so that's why we picked this place. Also it was close to where we needed to be the next morning. There is an iron but no ironing board. The heater thermostat apparently didn't work right. This is February and it's cold and we had the air conditioner on!  We tried the heat but we got so hot we thought we would cool the room off. It never got cold enough to turn it off!  I can't say I understand that. The room had a functioning refrigerator and microwave. The bathtub is old but the room seemed clean enough. No signs of any type of infestations. We did find somebody's dirty sock under the edge of the bed skirt though. There was only one functioning outlet in the room that wasn't already used for a lamp. There was a hair dryer in the vanity area. The room was small with two double beds. The sheets and pillows were ok. The towels were old and should be replaced but they did the job. The hot water in the shower was strange also. I got it to the temp I wanted and then it would cool off a little and then right back to the right temp. There was plenty of hot water for three people's showers and my husband shaving.  The price was about $47 including tax so it met the needs at the time. The internet worked but seemed a little slow but that's to be expected with that many people in one location.More</t>
   </si>
   <si>
+    <t>jjctraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r177292176-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -390,6 +423,9 @@
     <t>This motel was a LaQuinta until July 2013 when it became a Motel 6.  From the outside it has a very dumpy appearance.  But the room on the inside was very nice.  Large, with two beds and sharp flat screen TV (after I adjusted the wires to make it work) with 26 channels.  The bathroom was small with a very small vanity; it would be tight for two people.  There was a table with two mismatched chairs.  The lighting is excellent.  Black out drapes were very effective, much better than high end hotels.  The motel still retains the LaQuinta beds and bedding which were very nice.  AC worked great, which was a relief since it was 105 when I was there.  There was a crystal clear large pool, unfortunately there were a lot of smokers around it.  Michaels, a sports bar next door, had moderately priced meals, otherwise you have to drive to get food.  During the work week, the area is very congested, but you do have easy access to highway.  I got my room for $36 a night, which was a bargain.  The only real negative is the exterior of the hotel is falling apart.  Bolts are missing to connect stairwells to the second floor, beams are rotting and it looks run down. The interiors are fine, but the exterior needs a lot of work.  Rooms do not contain a fridge, microwave or safe, and breakfast is no...This motel was a LaQuinta until July 2013 when it became a Motel 6.  From the outside it has a very dumpy appearance.  But the room on the inside was very nice.  Large, with two beds and sharp flat screen TV (after I adjusted the wires to make it work) with 26 channels.  The bathroom was small with a very small vanity; it would be tight for two people.  There was a table with two mismatched chairs.  The lighting is excellent.  Black out drapes were very effective, much better than high end hotels.  The motel still retains the LaQuinta beds and bedding which were very nice.  AC worked great, which was a relief since it was 105 when I was there.  There was a crystal clear large pool, unfortunately there were a lot of smokers around it.  Michaels, a sports bar next door, had moderately priced meals, otherwise you have to drive to get food.  During the work week, the area is very congested, but you do have easy access to highway.  I got my room for $36 a night, which was a bargain.  The only real negative is the exterior of the hotel is falling apart.  Bolts are missing to connect stairwells to the second floor, beams are rotting and it looks run down. The interiors are fine, but the exterior needs a lot of work.  Rooms do not contain a fridge, microwave or safe, and breakfast is no longer served.  It’s a Motel 6 after all!  It is a 10 minute walk to the Farmers Branch DART station, and then just 30 minutes and you are downtown.  (Day pass is $5).If you are looking for a cheap motel with easy access to downtown, this is the place.  The rooms are nicer than your average Motel 6 and the rates are excellent.  I would stay here again.More</t>
   </si>
   <si>
+    <t>danielkC3782RQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r166996545-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -408,6 +444,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>keithandmissy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r166223923-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -426,6 +465,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Bengy465</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r165439884-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -441,6 +483,9 @@
     <t>The bed was very comfortable but the shower collected water in the bottom, like the stopper was in but it wasn't. The AC worked well. We did not try the pool but it is an outside one in case you were wondering. One of the other problems I had was on the bed there is some sort of metal lever hanging out and I hit my ankle on it numerous times and it hurt low heck! Not sure why they think its ok to leave that sticking out there. The breakfast was not bad: waffles, bagels, cereal, juice, yogurt, and some other items.</t>
   </si>
   <si>
+    <t>R H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r164290891-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -456,6 +501,9 @@
     <t>"Dont take cash...".  An assumption, since I always pay with credit card, and a returns member.  But arriving about 11:30 pm must denote a cash only customer for this property. Not really, just a late arrival. Sort of found that greeting strange from the front desk.Not quite sure about security since my license plate was contorted the next morning....rental car with Ohio plate. Guess that's a bad idea for those still fighting the war between the states.The room was just ok, older property, missing the tv remote, but since it was so late, I didn't watch tv.</t>
   </si>
   <si>
+    <t>LJ_0023</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r159754728-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -477,6 +525,9 @@
     <t>I travel with a medium size dog (50lbs) and often find myself at La Quintas because of their super friendly pet policy. That being said, the 4 star rating is in comparison to other La Quintas and inexpensive hotels. The staff here was friendly, the beds were very comfortable, and the location was ideal. The rooms have doors that open directly to the sidewalk, which I prefer with my dog, and there was a large grass patch in the back of the hotel ideal for those early morning walks. We were always 15-20min from anything we wanted to do in Dallas, including an awesome park (Sam Houston Trail Park) where we could take our dog for a long walk.No it wasn't the most modern hotel (old shower curtains, stained tubs, mismatching chairs), but I wasn't looking for a resort, just somewhere to lay my head at the end of the day.More</t>
   </si>
   <si>
+    <t>Fancyceleste</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r159169080-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -495,6 +546,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>A La Quinta traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r157880576-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -528,6 +582,9 @@
     <t>12/03/2012</t>
   </si>
   <si>
+    <t>601virgilt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r146220710-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -540,6 +597,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>ScottHSH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r141581368-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -558,6 +618,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r138160983-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -573,6 +636,9 @@
     <t>I NEVER have any issues staying here.  Always clean, always VERY friendly!  The only issue is not being able to turn the a/c fan on continuously while the air is running.  It wakes me up when it kicks on &amp; off.  Not a huge deal though....</t>
   </si>
   <si>
+    <t>doodah1959</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r137687363-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -588,6 +654,9 @@
     <t>We stayed august 17 and 18 and went to hurricane harbor and nrh2o water park and really enjoyed the room and workers was very friendly and helpful  and breakfast  was good texas waffles and lot of other things to chose from clean  breakfast area and lobby nice pool  would stay again</t>
   </si>
   <si>
+    <t>leighanneb_12812</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r134034255-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -606,6 +675,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>Jnewsom124</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r132646675-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -636,6 +708,9 @@
     <t>I'm a Mover for Unite Van Lines. I drive long  Days to get from one state to another. And sometimes I get to where I got to go and I Unload familys Homes. I'm tiered from Driving and Unloading I know when I get to the Hotel I'm going to get a Warm shower and get a Good Nights Sleep.. Wonderful soft beds. Thank you LaQuinta... I joined your rewards program. I know I'm going to return...</t>
   </si>
   <si>
+    <t>sportstravelerTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r126672267-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -657,6 +732,9 @@
     <t>Although the room looked like it had been updated, it fell short of La Quinta standards. The room itself was fairly large and, except for the carpet, looked clean though it didn' 'feel' clean. The bedspreads were the older kind that don't get washed after every guest. The bathroom was teeny-tiny with rust on fixtures and part of the door knob falling off. This is a motor lodge kind of place and maybe this is why it felt like such and unpleasant experience. Everytime someone walked past our room, you could hear their whole conversation. The breakfast area is very small and there were crumbs everywhere. There was trash and crumbs on the floor and there was only one employee taking care of the front desk and the breakfast area. He was working hard to keep up and was very friendly, though.We were so unhappy with this place we checked out two days early.More</t>
   </si>
   <si>
+    <t>jemineye02</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r126110964-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -675,6 +753,9 @@
     <t>I had an interview in the area so I stayed here for a night. This is a motel style location. All I required is that the room is clean and everything is in working condition and it was.  The TV service did go out for a little bit but it was repaired once we got back from dinner.  The wifi worked smoothly with no issues.  The breakfast in the morning was decent.  There was cereal, bagels, toast, oatmeal, yogurt, eggs (uncooked), coffee, juice and most notably a waffle maker.  The only word of caution that I have is that the water temperature in the shower will change if someone flushes the toilet next door.  I learned that the hard way.  Overall, it was a nice stay for the rate.  I’d return.More</t>
   </si>
   <si>
+    <t>Ra_2906</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r118626274-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -693,6 +774,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>docscholl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r84808830-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -711,6 +795,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>babybs39</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r65226422-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -729,6 +816,9 @@
     <t>May 2010</t>
   </si>
   <si>
+    <t>nanaMissouri</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r51827140-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -748,6 +838,9 @@
   </si>
   <si>
     <t>It is an older hotel that needs some TLC.Outside walkways could use some cleaning and paint. Our room small but comfortable.Carpet could be replaced. Bathroom was big but the ceiling leaked. I heard water dripping when the people above us took a shower. You could tell it was not the first time. I notified the front desk. They did e-mail us later to tell us that they had taken the room out of service and where repairing the ceiling.The breakfast room was very small. Just a little area in the Lobby. Crowded and not set up very good. People kept wandering looking for stuff and when things ran out the front desk person had to find the time to refill in between checking people out and answering the phone. Price was HIGH for what we got.More</t>
+  </si>
+  <si>
+    <t>JenArc</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r23618427-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
@@ -779,6 +872,9 @@
 zInitially I thought it was just this branch that was the problem. I called their *corporate office* which is in within the same DFW area (surprise! surprise!), they gave exactly the same attitude, they don't care about the safety of their guest, they just want your money, and they had the nerve to tell me they are not going to take any responsibility and the branch manager did the right thing to me! The corporate office also tried to hang up on me! They don't even care I...DO NOT STAY HERE!STAFFThis hotel is very unsafe and hotel management is evil. I got my car broken into IN THEIR PARKING LOT 30 feet from my room and the management not only do not give a damn that their hotel guest was victim of crime on THEIR PROPERTY, they have the nerve to charge me for the stay.  They even tried to hang up on me when I complained and demanded a refund. They did not even offer to clean the broken glass from my car. *I* had to call them on my own and the maintenance guy did not even clean out all the glass fully! This is a bunch of extremely irresponsible people. I did not realized they don't have security patrolling at night like many other hotels. The management and staff are also giving "fake niceness". They pretend to be nice but they are actually not. zInitially I thought it was just this branch that was the problem. I called their *corporate office* which is in within the same DFW area (surprise! surprise!), they gave exactly the same attitude, they don't care about the safety of their guest, they just want your money, and they had the nerve to tell me they are not going to take any responsibility and the branch manager did the right thing to me! The corporate office also tried to hang up on me! They don't even care I am complaining to Beeter Business Burea (BBB) on them. This mentality is carried at their whole company!I have travelled extensively and had never seen such an irresponsible hotel business chain.I WILL NOT stay at this chain hotel again. I had spread the word out to people I know and those on the streets already. Many people that heard my story are appalled by this and will not be staying here either.Boycott La Quintas, You have many other choices! Do not patrolize a business that doesn't care their guest or property are attacked on their premise! You are the customer you have to right to be safe in a hotel !More</t>
   </si>
   <si>
+    <t>PMTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r17104914-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -800,6 +896,9 @@
     <t>I stay here with my family (wife and 2 teen girls) for 1 night when we decided to spend a weekend in Dallas. For about US $ 70 dollars we got a very clean room with two queen beds, a nice continental breakfast, free parking in front of the room and the usual amenities (cable, Internet, clean small swimming pool, etc.). In its category - a place to rest in a proper fashion - is a above average hotel.Service is very good. For instance, I got a problem with my bathroom (shower was not working) and they change my room real quick and gave me a complimentary premium on-demand movie for free.More</t>
   </si>
   <si>
+    <t>beachlover7492</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r16353532-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -818,6 +917,9 @@
     <t>May 2007</t>
   </si>
   <si>
+    <t>joem1097</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r8483661-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -837,6 +939,9 @@
   </si>
   <si>
     <t>I havent written a review before, but this place inspired me to do so.  The location is very sketchy---a warehouse/industrial area, and there are a lot of not so friendly people milling around the parking lot throughout the night. Teens on bikes, people just sitting in cars. It took 15 minutes to check in (and I had a reservation).  The room was clean, but was very ragged. The carpet and parts of the walls were stained.  The noise from people in the parking lot kept me up, and another noise early in the morning turned out to be a rather large insect in my room. I skipped my 2nd night despite already prepaying. (It may be cheap, but trust me, it isn't worth it).More</t>
+  </si>
+  <si>
+    <t>wtracing</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r8419458-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
@@ -1381,43 +1486,47 @@
       <c r="A2" t="n">
         <v>5198</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169382</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -1437,50 +1546,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5198</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169383</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1492,56 +1605,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5198</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169384</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1553,56 +1670,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5198</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169385</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1616,50 +1737,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5198</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169386</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1673,50 +1798,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5198</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>2466</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1734,50 +1863,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5198</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>27964</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1797,50 +1930,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5198</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>89452</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" t="s">
         <v>104</v>
-      </c>
-      <c r="O9" t="s">
-        <v>97</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -1858,41 +1995,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5198</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169387</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -1921,50 +2062,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5198</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>129685</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1978,50 +2123,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5198</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169388</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2045,48 +2194,52 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5198</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>169389</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="O13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -2110,50 +2263,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5198</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>169390</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2177,41 +2334,45 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5198</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>169391</v>
+      </c>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
@@ -2240,50 +2401,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5198</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>35605</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2297,50 +2462,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5198</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>169392</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2364,50 +2533,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5198</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>169393</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="O18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2431,35 +2604,39 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5198</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s"/>
@@ -2467,10 +2644,10 @@
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2491,49 +2668,50 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5198</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C20" t="s">
+        <v>176</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="O20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2557,35 +2735,39 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5198</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C21" t="s">
+        <v>176</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="J21" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
@@ -2593,10 +2775,10 @@
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2617,36 +2799,37 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5198</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>169394</v>
+      </c>
+      <c r="C22" t="s">
+        <v>188</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="J22" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s"/>
@@ -2654,10 +2837,10 @@
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O22" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2678,51 +2861,52 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5198</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>169395</v>
+      </c>
+      <c r="C23" t="s">
+        <v>193</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="J23" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="K23" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="O23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2746,50 +2930,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5198</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>200</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="J24" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="O24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2813,50 +3001,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5198</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>163805</v>
+      </c>
+      <c r="C25" t="s">
+        <v>206</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="J25" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="K25" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="O25" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -2880,50 +3072,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5198</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>169396</v>
+      </c>
+      <c r="C26" t="s">
+        <v>212</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="J26" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="O26" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -2947,41 +3143,45 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5198</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>169397</v>
+      </c>
+      <c r="C27" t="s">
+        <v>219</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="J27" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="K27" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="L27" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
@@ -3010,50 +3210,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5198</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>200</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J28" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="K28" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="O28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3077,50 +3281,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5198</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>147346</v>
+      </c>
+      <c r="C29" t="s">
+        <v>230</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="J29" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="K29" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="L29" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="O29" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3144,50 +3352,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5198</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>169398</v>
+      </c>
+      <c r="C30" t="s">
+        <v>238</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="J30" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="K30" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="O30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3211,50 +3423,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5198</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>72525</v>
+      </c>
+      <c r="C31" t="s">
+        <v>245</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="J31" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="K31" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="O31" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3278,50 +3494,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>5198</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>169399</v>
+      </c>
+      <c r="C32" t="s">
+        <v>252</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="J32" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="K32" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="L32" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="O32" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3345,50 +3565,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>5198</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>169400</v>
+      </c>
+      <c r="C33" t="s">
+        <v>259</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="J33" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="K33" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="L33" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3412,50 +3636,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>5198</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>72309</v>
+      </c>
+      <c r="C34" t="s">
+        <v>266</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="J34" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="K34" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -3479,50 +3707,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>5198</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>169401</v>
+      </c>
+      <c r="C35" t="s">
+        <v>274</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="J35" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="K35" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="O35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -3538,50 +3770,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>5198</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>38938</v>
+      </c>
+      <c r="C36" t="s">
+        <v>282</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="J36" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="K36" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="L36" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="O36" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -3605,50 +3841,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>5198</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>169402</v>
+      </c>
+      <c r="C37" t="s">
+        <v>290</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="J37" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="K37" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="L37" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="O37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -3672,50 +3912,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>5198</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>169403</v>
+      </c>
+      <c r="C38" t="s">
+        <v>297</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="J38" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="K38" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="L38" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="O38" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P38" t="n">
         <v>2</v>
@@ -3737,50 +3981,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>5198</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>75153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>305</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="J39" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="K39" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="L39" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="O39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -3802,7 +4050,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_571.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_571.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="425">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>jhellner1204</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r470846413-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>55828</t>
+  </si>
+  <si>
+    <t>98687</t>
+  </si>
+  <si>
+    <t>470846413</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water damage </t>
+  </si>
+  <si>
+    <t>In my room there was water damage all over the floor when I woke up from the leaking ac that was blowing all night and I also slipped the fall was a scare but I'm ok seeing that I'm 6 months pregnant the water damage did ruin my clothes I had for my trip I tried talking to the gentleman at the front but he was so rude about it.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r405754663-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>405754663</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>Pictures Will Fool You</t>
+  </si>
+  <si>
+    <t>This place is just another hole in the wall Indian owned Drug Hole with Motel 6 name!!!! Gran everything you need to before 10 because area has not one store open after 10pm and cops sitting everywhere!!!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r396708188-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
-    <t>55828</t>
-  </si>
-  <si>
-    <t>98687</t>
-  </si>
-  <si>
     <t>396708188</t>
   </si>
   <si>
@@ -183,9 +219,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>teacher h</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r329703839-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -213,9 +246,6 @@
     <t>Right on the highway with construction site out front bode that one weary traveller might not rest easy here. However, this is the least of your worries. Rooms appear clean at surface level, until you walk into to a stale aroma of meth that never fades. Moreover, one evening, I found myself in reception with 3 individuals obviously high off their faces negotiating with the staff for a night's stay with their spare cash... Unbelievably to their success. The owner is such a kind and helpful man, it is disappointing to see how he is not holding up high standards on what could be an accommodating place. More</t>
   </si>
   <si>
-    <t>eldjudith</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r286969975-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -234,9 +264,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team member at Motel 6 Dallas - Farmers Branch, responded to this reviewResponded July 13, 2015</t>
   </si>
   <si>
@@ -246,7 +273,58 @@
     <t>Asked for downstairs smoking was put upstairs non smoking.  Floors were so nasty and felt wet would not let my pet lay on it so I took a sheet off each bed to lay down over it and had to keep shoes on at all times.  bathroom light went out they never bothered to change. soap was in room but upon request would not give any shampoo or other items   phone in room did not work nor even had any buttons.  Why did they even keep? Allow pets but have nowhere except other business s property to allow pets to relieve themselves... Never againMore</t>
   </si>
   <si>
-    <t>Amanda1315</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r271956767-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>271956767</t>
+  </si>
+  <si>
+    <t>05/14/2015</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>The man that check me in was very friendly and welcoming.  The room although "clean" had pieces of condum wrapper (from two different wrappers) in the room.  And even though this room was "cleaned" every day, there were long wavey hairs on the floor, in the bathtub, ON THE BED!  EVERY DAY!  I have straight hair of different color so they were not mine.  I wanted to complain to the front desk, I want to change hotels but this was a business trip and circumstances did not permit.  Besides I know the person cleaning the room I was in would probably be cleaning the rest of them.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas - Farmers Branch, responded to this reviewResponded May 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2015</t>
+  </si>
+  <si>
+    <t>The man that check me in was very friendly and welcoming.  The room although "clean" had pieces of condum wrapper (from two different wrappers) in the room.  And even though this room was "cleaned" every day, there were long wavey hairs on the floor, in the bathtub, ON THE BED!  EVERY DAY!  I have straight hair of different color so they were not mine.  I wanted to complain to the front desk, I want to change hotels but this was a business trip and circumstances did not permit.  Besides I know the person cleaning the room I was in would probably be cleaning the rest of them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r266163409-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>266163409</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>PLEASE BEWARE OF SUPPOSEDLY MANAGER AND THIS PLACE</t>
+  </si>
+  <si>
+    <t>EVERYONE PLEASE BEWARE OF THIS PLACE!!!!!!!!!!!!!!!!!!  I have been staying in this hotel for a week. On my last night here a drunk homeless man comes up talking to me with alcohol in his hand. Me being from the South with my southern hospitality talked back to him for a few. After that I leave for 2 hours to go have dinner and when I get back. YOUR RUDE SUPPOSEDLY MANAGER ask me to come to front office and I do. Then he proceeds to tell me that I am not allowed to drink outside when I wasn't even drinking out there the homeless man was and THE MANAGER told me I was getting kicked out of my hotel room. When I asked him why he couldn't give me a real honest answer and kept saying I was drinking outside. The security guard just stood there shaking his head like he was embrassed.  ALSO EVERYONE THAT IS WORKING AT OR ON THE HOTEL LIVES THERE TOO!!!! I WILL NEVER STAY HERE AGAIN AND THIS WILL BE WROTE ON ALL REVIEWS FOR EVERYONE TO SEE!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas - Farmers Branch, responded to this reviewResponded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2015</t>
+  </si>
+  <si>
+    <t>EVERYONE PLEASE BEWARE OF THIS PLACE!!!!!!!!!!!!!!!!!!  I have been staying in this hotel for a week. On my last night here a drunk homeless man comes up talking to me with alcohol in his hand. Me being from the South with my southern hospitality talked back to him for a few. After that I leave for 2 hours to go have dinner and when I get back. YOUR RUDE SUPPOSEDLY MANAGER ask me to come to front office and I do. Then he proceeds to tell me that I am not allowed to drink outside when I wasn't even drinking out there the homeless man was and THE MANAGER told me I was getting kicked out of my hotel room. When I asked him why he couldn't give me a real honest answer and kept saying I was drinking outside. The security guard just stood there shaking his head like he was embrassed.  ALSO EVERYONE THAT IS WORKING AT OR ON THE HOTEL LIVES THERE TOO!!!! I WILL NEVER STAY HERE AGAIN AND THIS WILL BE WROTE ON ALL REVIEWS FOR EVERYONE TO SEE!!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r263144072-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
@@ -270,9 +348,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Tammy N U</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r262186316-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -288,9 +363,6 @@
     <t>My wife and I was in Dallas for business and stayed in the room for sleep and that's all cause it had a musky odor and housekeeping sucked. We had a phone that didn't work and had to ask for towels cause wasn't but 1 in the room. If you are looking for a place to stay around Dallas this is DEFINITELY NOT THE PLACE!!!!</t>
   </si>
   <si>
-    <t>William D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r256835534-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -309,7 +381,37 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>Rabalicious</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r251365492-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>251365492</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>POOR MOTEL</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights for Dallas Market. Asked for an extra pillow 3 times. Never got it. Asked for a box of KLEENEX.... They did not know what it was. I do not reccomend this place, even though it was at an easy off easy on to the freeway.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r249921870-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>249921870</t>
+  </si>
+  <si>
+    <t>01/18/2015</t>
+  </si>
+  <si>
+    <t>fair value budget motel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if you need a room only to sleep for the night, this hotel will serve that purpose but little else. The area is industrial and the rooms are tidy but not clean. The value is fair; you get a $35 a night room. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r245573391-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
@@ -336,9 +438,6 @@
     <t>Considering some of the places that I've stayed in the Dallas area, this place wasn't all that bad.  It's Motel 6, so you definitely get what you pay for.  My room was dated (but clean), comfortable, and easy enough to find.  There was a restaurant right across the parking lot that stayed open pretty late.  This place is not too far from Dallas Love Field airport, but doesn't suffer from some of the other issues that hotels closer to it have (i.e. pimps and prostitutes).  Ask for a room on the back side of the hotel to mute the interstate traffic (for all of you light sleepers out there).  If you're just staying the night and you're not too picky, definitely give this place a try!  Trust me, you COULD do a lot worse.More</t>
   </si>
   <si>
-    <t>Ethel D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r227906965-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -357,9 +456,6 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t>Tlady2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r223527504-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -375,7 +471,43 @@
     <t>I came to farmers branch expecting something descent....why a mistake I made...got to the hotel n checked in n once came to my room trash was already on the floor it wasn't cleaned...then moved to a second room it stink like a skunk n front desk called security on me cuz I wanted something else....dey disrespected me so bad security n front desk...this my last time n I mean last time coming here n pray don't nobdy else come here cuz it's poor service n rooms stank so badddd....they wanted to call police in me cuz I couldn't take the smell....</t>
   </si>
   <si>
-    <t>Lwomack</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r198849200-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>198849200</t>
+  </si>
+  <si>
+    <t>03/26/2014</t>
+  </si>
+  <si>
+    <t>Danny-the owner is a scammer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First once u get past all the construction blocking the place, then you deal with the SLOWEST, NON ENGLISH SPEAKING HOUSEKEEPERS EVA, rudely barge in room after waiting 2 seconds, No flat screens, no shampoo/conditioner, teenagers hanging out everywhere. Omg the list goes on Danny is the owner, is he a scammer, he put two families out for NO reason( one white couple, one bi racial lady with a baby,) he may be bipolar.Farmers branch hotels are all ghetto and should be 15$ a night serious just shelter cost. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r195001928-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>195001928</t>
+  </si>
+  <si>
+    <t>02/22/2014</t>
+  </si>
+  <si>
+    <t>Good price for Dallas stay- convenient!</t>
+  </si>
+  <si>
+    <t>As previous reviews state, this was a La Quinta Inn until recently. Amenities have been downscaled from La Quinta, but service has not. For the price, it is quite good. Expect fresh coffee and bathroom soap, but not breakfast or little bottles of anything.Front desk staff was extremely helpful and kind, and the mattresses were better than many four-star hotels in which I've stayed. The experience was clean and bug-free. The free WiFi worked well.The best feature of this motel is the ten minute walk to the DART regional rail train that will have you to the West End and all major tourist attractions in no time for five bucks a day. The walk is safe, though you have to cross some major thoroughfares at crosswalks.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>As previous reviews state, this was a La Quinta Inn until recently. Amenities have been downscaled from La Quinta, but service has not. For the price, it is quite good. Expect fresh coffee and bathroom soap, but not breakfast or little bottles of anything.Front desk staff was extremely helpful and kind, and the mattresses were better than many four-star hotels in which I've stayed. The experience was clean and bug-free. The free WiFi worked well.The best feature of this motel is the ten minute walk to the DART regional rail train that will have you to the West End and all major tourist attractions in no time for five bucks a day. The walk is safe, though you have to cross some major thoroughfares at crosswalks.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r193730490-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
@@ -399,9 +531,6 @@
     <t>Not the best area for a woman alone so I'm glad my husband was with me. We had a dog with us so that's why we picked this place. Also it was close to where we needed to be the next morning. There is an iron but no ironing board. The heater thermostat apparently didn't work right. This is February and it's cold and we had the air conditioner on!  We tried the heat but we got so hot we thought we would cool the room off. It never got cold enough to turn it off!  I can't say I understand that. The room had a functioning refrigerator and microwave. The bathtub is old but the room seemed clean enough. No signs of any type of infestations. We did find somebody's dirty sock under the edge of the bed skirt though. There was only one functioning outlet in the room that wasn't already used for a lamp. There was a hair dryer in the vanity area. The room was small with two double beds. The sheets and pillows were ok. The towels were old and should be replaced but they did the job. The hot water in the shower was strange also. I got it to the temp I wanted and then it would cool off a little and then right back to the right temp. There was plenty of hot water for three people's showers and my husband shaving....Not the best area for a woman alone so I'm glad my husband was with me. We had a dog with us so that's why we picked this place. Also it was close to where we needed to be the next morning. There is an iron but no ironing board. The heater thermostat apparently didn't work right. This is February and it's cold and we had the air conditioner on!  We tried the heat but we got so hot we thought we would cool the room off. It never got cold enough to turn it off!  I can't say I understand that. The room had a functioning refrigerator and microwave. The bathtub is old but the room seemed clean enough. No signs of any type of infestations. We did find somebody's dirty sock under the edge of the bed skirt though. There was only one functioning outlet in the room that wasn't already used for a lamp. There was a hair dryer in the vanity area. The room was small with two double beds. The sheets and pillows were ok. The towels were old and should be replaced but they did the job. The hot water in the shower was strange also. I got it to the temp I wanted and then it would cool off a little and then right back to the right temp. There was plenty of hot water for three people's showers and my husband shaving.  The price was about $47 including tax so it met the needs at the time. The internet worked but seemed a little slow but that's to be expected with that many people in one location.More</t>
   </si>
   <si>
-    <t>jjctraveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r177292176-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -423,9 +552,6 @@
     <t>This motel was a LaQuinta until July 2013 when it became a Motel 6.  From the outside it has a very dumpy appearance.  But the room on the inside was very nice.  Large, with two beds and sharp flat screen TV (after I adjusted the wires to make it work) with 26 channels.  The bathroom was small with a very small vanity; it would be tight for two people.  There was a table with two mismatched chairs.  The lighting is excellent.  Black out drapes were very effective, much better than high end hotels.  The motel still retains the LaQuinta beds and bedding which were very nice.  AC worked great, which was a relief since it was 105 when I was there.  There was a crystal clear large pool, unfortunately there were a lot of smokers around it.  Michaels, a sports bar next door, had moderately priced meals, otherwise you have to drive to get food.  During the work week, the area is very congested, but you do have easy access to highway.  I got my room for $36 a night, which was a bargain.  The only real negative is the exterior of the hotel is falling apart.  Bolts are missing to connect stairwells to the second floor, beams are rotting and it looks run down. The interiors are fine, but the exterior needs a lot of work.  Rooms do not contain a fridge, microwave or safe, and breakfast is no...This motel was a LaQuinta until July 2013 when it became a Motel 6.  From the outside it has a very dumpy appearance.  But the room on the inside was very nice.  Large, with two beds and sharp flat screen TV (after I adjusted the wires to make it work) with 26 channels.  The bathroom was small with a very small vanity; it would be tight for two people.  There was a table with two mismatched chairs.  The lighting is excellent.  Black out drapes were very effective, much better than high end hotels.  The motel still retains the LaQuinta beds and bedding which were very nice.  AC worked great, which was a relief since it was 105 when I was there.  There was a crystal clear large pool, unfortunately there were a lot of smokers around it.  Michaels, a sports bar next door, had moderately priced meals, otherwise you have to drive to get food.  During the work week, the area is very congested, but you do have easy access to highway.  I got my room for $36 a night, which was a bargain.  The only real negative is the exterior of the hotel is falling apart.  Bolts are missing to connect stairwells to the second floor, beams are rotting and it looks run down. The interiors are fine, but the exterior needs a lot of work.  Rooms do not contain a fridge, microwave or safe, and breakfast is no longer served.  It’s a Motel 6 after all!  It is a 10 minute walk to the Farmers Branch DART station, and then just 30 minutes and you are downtown.  (Day pass is $5).If you are looking for a cheap motel with easy access to downtown, this is the place.  The rooms are nicer than your average Motel 6 and the rates are excellent.  I would stay here again.More</t>
   </si>
   <si>
-    <t>danielkC3782RQ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r166996545-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -444,7 +570,25 @@
     <t>More</t>
   </si>
   <si>
-    <t>keithandmissy</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r166921685-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>166921685</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r166902630-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>166902630</t>
+  </si>
+  <si>
+    <t>Satisfied</t>
+  </si>
+  <si>
+    <t>We came here on one of our stops tornado chasing. We hadn't planned any hotels during our trip and just "landed" in this zone. We were satisfied with every aspect of the hotel. Staff were friendly, rooms were clean and comfortable and breakfast was enough to keep us going all morning. Would stay here again if I passed through this part of the country.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r166223923-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
@@ -465,9 +609,6 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>Bengy465</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r165439884-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -483,9 +624,6 @@
     <t>The bed was very comfortable but the shower collected water in the bottom, like the stopper was in but it wasn't. The AC worked well. We did not try the pool but it is an outside one in case you were wondering. One of the other problems I had was on the bed there is some sort of metal lever hanging out and I hit my ankle on it numerous times and it hurt low heck! Not sure why they think its ok to leave that sticking out there. The breakfast was not bad: waffles, bagels, cereal, juice, yogurt, and some other items.</t>
   </si>
   <si>
-    <t>R H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r164290891-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -501,7 +639,56 @@
     <t>"Dont take cash...".  An assumption, since I always pay with credit card, and a returns member.  But arriving about 11:30 pm must denote a cash only customer for this property. Not really, just a late arrival. Sort of found that greeting strange from the front desk.Not quite sure about security since my license plate was contorted the next morning....rental car with Ohio plate. Guess that's a bad idea for those still fighting the war between the states.The room was just ok, older property, missing the tv remote, but since it was so late, I didn't watch tv.</t>
   </si>
   <si>
-    <t>LJ_0023</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r162153465-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>162153465</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>UMMMM!!!!</t>
+  </si>
+  <si>
+    <t>I needed to spend one night close to where my son was animal sitting his girlfriend's animals. We decided that Farmers Branch would be close enough. I had a free night at a La Quinta. I generally like to stay at La Quinta's because of cost, cleanliness and the breakfasts. WoW---what a mistake this was. I don't get freaked out easily coming from Brooklyn and living in El Paso, but I couldn't wait to get out of this place. The first room I was placed in the TV and phone didn't work and I was placed next to some men who were loading their fridge with what looked like a month's worth of beer. Seemed like they were residents. The second room I was placed in was on bottom of the party animals and good thing the key didn't work. I then asked to be placed on a different side of the motel which didn't face the "restaurant". The room was clean but had a funny mildew smell to it. The bathtub needed to be replaced and there was a place where the carpet was pulled from the wall. I was so freaked out that at night I placed a chair up against the door. The bed was great--I love the toppers at all of these hotels--until the party outside started at 3 am. At 6 I decided to pack up my things and leave----  I should have used my...I needed to spend one night close to where my son was animal sitting his girlfriend's animals. We decided that Farmers Branch would be close enough. I had a free night at a La Quinta. I generally like to stay at La Quinta's because of cost, cleanliness and the breakfasts. WoW---what a mistake this was. I don't get freaked out easily coming from Brooklyn and living in El Paso, but I couldn't wait to get out of this place. The first room I was placed in the TV and phone didn't work and I was placed next to some men who were loading their fridge with what looked like a month's worth of beer. Seemed like they were residents. The second room I was placed in was on bottom of the party animals and good thing the key didn't work. I then asked to be placed on a different side of the motel which didn't face the "restaurant". The room was clean but had a funny mildew smell to it. The bathtub needed to be replaced and there was a place where the carpet was pulled from the wall. I was so freaked out that at night I placed a chair up against the door. The bed was great--I love the toppers at all of these hotels--until the party outside started at 3 am. At 6 I decided to pack up my things and leave----  I should have used my points for a much nicer different part of Dallas and sucked up the distance of driving--- Will not be back to that La Quinta--- I should have cancelled and moved to another hotel as soon as I drove up--but chalk that one up to experience. PS--- I could NOT get on the internet and did not want to leave my room at night, and two--- the staff is quite nice--- didn't even want to try the breakfast. Wanted to get out of dodge as quickly as possible----MoreShow less</t>
+  </si>
+  <si>
+    <t>I needed to spend one night close to where my son was animal sitting his girlfriend's animals. We decided that Farmers Branch would be close enough. I had a free night at a La Quinta. I generally like to stay at La Quinta's because of cost, cleanliness and the breakfasts. WoW---what a mistake this was. I don't get freaked out easily coming from Brooklyn and living in El Paso, but I couldn't wait to get out of this place. The first room I was placed in the TV and phone didn't work and I was placed next to some men who were loading their fridge with what looked like a month's worth of beer. Seemed like they were residents. The second room I was placed in was on bottom of the party animals and good thing the key didn't work. I then asked to be placed on a different side of the motel which didn't face the "restaurant". The room was clean but had a funny mildew smell to it. The bathtub needed to be replaced and there was a place where the carpet was pulled from the wall. I was so freaked out that at night I placed a chair up against the door. The bed was great--I love the toppers at all of these hotels--until the party outside started at 3 am. At 6 I decided to pack up my things and leave----  I should have used my...I needed to spend one night close to where my son was animal sitting his girlfriend's animals. We decided that Farmers Branch would be close enough. I had a free night at a La Quinta. I generally like to stay at La Quinta's because of cost, cleanliness and the breakfasts. WoW---what a mistake this was. I don't get freaked out easily coming from Brooklyn and living in El Paso, but I couldn't wait to get out of this place. The first room I was placed in the TV and phone didn't work and I was placed next to some men who were loading their fridge with what looked like a month's worth of beer. Seemed like they were residents. The second room I was placed in was on bottom of the party animals and good thing the key didn't work. I then asked to be placed on a different side of the motel which didn't face the "restaurant". The room was clean but had a funny mildew smell to it. The bathtub needed to be replaced and there was a place where the carpet was pulled from the wall. I was so freaked out that at night I placed a chair up against the door. The bed was great--I love the toppers at all of these hotels--until the party outside started at 3 am. At 6 I decided to pack up my things and leave----  I should have used my points for a much nicer different part of Dallas and sucked up the distance of driving--- Will not be back to that La Quinta--- I should have cancelled and moved to another hotel as soon as I drove up--but chalk that one up to experience. PS--- I could NOT get on the internet and did not want to leave my room at night, and two--- the staff is quite nice--- didn't even want to try the breakfast. Wanted to get out of dodge as quickly as possible----More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r160502512-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>160502512</t>
+  </si>
+  <si>
+    <t>05/12/2013</t>
+  </si>
+  <si>
+    <t>What is happening to this place</t>
+  </si>
+  <si>
+    <t>Well I have stayed here a number of times before and it is an older hotel but has always been clean and comfortable.  On this stay I encountered a couple of problems first I spent 4 hours
+trying to connect to the internet the front desk said they were having problems so I finally went
+back up front and she said oh you are in back so you may not be able to connect. I needed the 
+internet so I got moved to a front room however, instead of the king room I had it was a room with 2 double beds. Ok I was by myself so not really a big deal but the room was not near as 
+nice. Now I was here 4 days and used my computer every night then on the last night I saw
+something under the desk that had not been there before and it was nasty I would not touch it..
+I also found 2 tree roaches crawling on the walls. When I checked out that morning I told the guy at the front desk and he said they are not roaches they are water bugs....give me a break I lived 
+in Texas for 31 years I know a roach when I see one.The guy at the front desk did not offer to do
+anything about the mess . Also the other thing was there was not coffee on Saturday or Sunday...Well I have stayed here a number of times before and it is an older hotel but has always been clean and comfortable.  On this stay I encountered a couple of problems first I spent 4 hourstrying to connect to the internet the front desk said they were having problems so I finally wentback up front and she said oh you are in back so you may not be able to connect. I needed the internet so I got moved to a front room however, instead of the king room I had it was a room with 2 double beds. Ok I was by myself so not really a big deal but the room was not near as nice. Now I was here 4 days and used my computer every night then on the last night I sawsomething under the desk that had not been there before and it was nasty I would not touch it..I also found 2 tree roaches crawling on the walls. When I checked out that morning I told the guy at the front desk and he said they are not roaches they are water bugs....give me a break I lived in Texas for 31 years I know a roach when I see one.The guy at the front desk did not offer to doanything about the mess . Also the other thing was there was not coffee on Saturday or Sunday morning.  I guess you get what you pay for and as I have said before I have never had a problem there before but I do think they are allowing the place to run down and when I see bugs that really turns me off I may have to find another place to stay when working in the Dallas area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Well I have stayed here a number of times before and it is an older hotel but has always been clean and comfortable.  On this stay I encountered a couple of problems first I spent 4 hours
+trying to connect to the internet the front desk said they were having problems so I finally went
+back up front and she said oh you are in back so you may not be able to connect. I needed the 
+internet so I got moved to a front room however, instead of the king room I had it was a room with 2 double beds. Ok I was by myself so not really a big deal but the room was not near as 
+nice. Now I was here 4 days and used my computer every night then on the last night I saw
+something under the desk that had not been there before and it was nasty I would not touch it..
+I also found 2 tree roaches crawling on the walls. When I checked out that morning I told the guy at the front desk and he said they are not roaches they are water bugs....give me a break I lived 
+in Texas for 31 years I know a roach when I see one.The guy at the front desk did not offer to do
+anything about the mess . Also the other thing was there was not coffee on Saturday or Sunday...Well I have stayed here a number of times before and it is an older hotel but has always been clean and comfortable.  On this stay I encountered a couple of problems first I spent 4 hourstrying to connect to the internet the front desk said they were having problems so I finally wentback up front and she said oh you are in back so you may not be able to connect. I needed the internet so I got moved to a front room however, instead of the king room I had it was a room with 2 double beds. Ok I was by myself so not really a big deal but the room was not near as nice. Now I was here 4 days and used my computer every night then on the last night I sawsomething under the desk that had not been there before and it was nasty I would not touch it..I also found 2 tree roaches crawling on the walls. When I checked out that morning I told the guy at the front desk and he said they are not roaches they are water bugs....give me a break I lived in Texas for 31 years I know a roach when I see one.The guy at the front desk did not offer to doanything about the mess . Also the other thing was there was not coffee on Saturday or Sunday morning.  I guess you get what you pay for and as I have said before I have never had a problem there before but I do think they are allowing the place to run down and when I see bugs that really turns me off I may have to find another place to stay when working in the Dallas area.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r159754728-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
@@ -519,15 +706,9 @@
     <t>I travel with a medium size dog (50lbs) and often find myself at La Quintas because of their super friendly pet policy. That being said, the 4 star rating is in comparison to other La Quintas and inexpensive hotels. The staff here was friendly, the beds were very comfortable, and the location was ideal. The rooms have doors that open directly to the sidewalk, which I prefer with my dog, and there was a large grass patch in the back of the hotel ideal for those early morning walks. We were always 15-20min from anything we wanted to do in Dallas, including an awesome park (Sam Houston Trail Park) where we could take our dog for a long walk.No it wasn't the most modern hotel (old shower curtains, stained tubs, mismatching chairs), but I wasn't looking for a resort, just somewhere to lay my head at the end of the day.MoreShow less</t>
   </si>
   <si>
-    <t>May 2013</t>
-  </si>
-  <si>
     <t>I travel with a medium size dog (50lbs) and often find myself at La Quintas because of their super friendly pet policy. That being said, the 4 star rating is in comparison to other La Quintas and inexpensive hotels. The staff here was friendly, the beds were very comfortable, and the location was ideal. The rooms have doors that open directly to the sidewalk, which I prefer with my dog, and there was a large grass patch in the back of the hotel ideal for those early morning walks. We were always 15-20min from anything we wanted to do in Dallas, including an awesome park (Sam Houston Trail Park) where we could take our dog for a long walk.No it wasn't the most modern hotel (old shower curtains, stained tubs, mismatching chairs), but I wasn't looking for a resort, just somewhere to lay my head at the end of the day.More</t>
   </si>
   <si>
-    <t>Fancyceleste</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r159169080-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -546,9 +727,6 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t>A La Quinta traveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r157880576-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -561,6 +739,39 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r157252320-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>157252320</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>The beds were comfortable and not rock hard. There should be a rating system to designate how firm the beds are. However, this was just right!(Sounds like Goldilock). Hotel was clean and modern too. I don't know what else to write but had to have 200 character minimum :)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r148751576-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>148751576</t>
+  </si>
+  <si>
+    <t>01/03/2013</t>
+  </si>
+  <si>
+    <t>No problems with ADA room!</t>
+  </si>
+  <si>
+    <t>Ordered an ADA room with two beds. When we arrived, got right into the correct room....No Problem. Room was clean and comfortable. It was somewhat cramped for an ADA room but no a problem. Large bathroom set up properly. Decent breakfast from 6 to 9 AM. Seemed to be a quite area with few guests at the hotel. The main sign out was not turned on at night so it would be a trip to find thew hotel for the first time from the highway. I have no idea why their light was out?</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r147120341-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -582,9 +793,6 @@
     <t>12/03/2012</t>
   </si>
   <si>
-    <t>601virgilt</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r146220710-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -597,7 +805,43 @@
     <t>November 2012</t>
   </si>
   <si>
-    <t>ScottHSH</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r143322090-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>143322090</t>
+  </si>
+  <si>
+    <t>10/20/2012</t>
+  </si>
+  <si>
+    <t>Lies and false promises</t>
+  </si>
+  <si>
+    <t>The desk clerk promises anything to get your reservation but then appologizes only after you check in and denies any promises. Christine, the desk clerk, took my reservation and happily agreed to my request for an ADA room on first floor with 2 beds and a micro-fridge. Saying "that is no problem we have them in most rooms and will make sure you have one in yours." When I arrive I ask to confirm that the micro-fridge is in the room as I've been through this before at other La Quintas. The desk clerk says "yes your room has a micro-fridge." However when I walk in the room there is NOT one! So I call the desk and she says "well we only have 3 for the entire hotel so there is nothing I can do about it." Calling the 800 reservations number am told "nothing I can do about it all I do is take reservations." Finally after arguing with the desk clerk about either getting one or giving me a refund she takes a fridge out of another empty room and brings it to mine, but the microwave she said was attatched to it was not there. Asking about that she said "oh I left it in the other room if you want come get it yourself."  Back surgery, a broken disc and 3 herniated disc in my lower back, 5 heart attacks and a quadruple by-pass and...The desk clerk promises anything to get your reservation but then appologizes only after you check in and denies any promises. Christine, the desk clerk, took my reservation and happily agreed to my request for an ADA room on first floor with 2 beds and a micro-fridge. Saying "that is no problem we have them in most rooms and will make sure you have one in yours." When I arrive I ask to confirm that the micro-fridge is in the room as I've been through this before at other La Quintas. The desk clerk says "yes your room has a micro-fridge." However when I walk in the room there is NOT one! So I call the desk and she says "well we only have 3 for the entire hotel so there is nothing I can do about it." Calling the 800 reservations number am told "nothing I can do about it all I do is take reservations." Finally after arguing with the desk clerk about either getting one or giving me a refund she takes a fridge out of another empty room and brings it to mine, but the microwave she said was attatched to it was not there. Asking about that she said "oh I left it in the other room if you want come get it yourself."  Back surgery, a broken disc and 3 herniated disc in my lower back, 5 heart attacks and a quadruple by-pass and I'm having to carry a microwave down the hall from 10 rooms away down to mine or do without. There are NO ice machines on first floor at all so if you can not climb stairs do NOT expect any ice! What is amazing is as cheap as this hotel is (which should have clued me in) it only had a handful of cars when I arrived and the hotel next door which is quite more expensive had a full parking lot of cars. Nothing more then an expensive Motel 6. Lies and false promises until they get the money on your card then its excuses, more lies and hollow appologies. Brown stained filthy carpets recyled sheets (which means don't change them if they're not stained). Supposed to be a non smoking room but my mom and wife which are allergic to smoke could smell the smoke stench of previous smokers in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>The desk clerk promises anything to get your reservation but then appologizes only after you check in and denies any promises. Christine, the desk clerk, took my reservation and happily agreed to my request for an ADA room on first floor with 2 beds and a micro-fridge. Saying "that is no problem we have them in most rooms and will make sure you have one in yours." When I arrive I ask to confirm that the micro-fridge is in the room as I've been through this before at other La Quintas. The desk clerk says "yes your room has a micro-fridge." However when I walk in the room there is NOT one! So I call the desk and she says "well we only have 3 for the entire hotel so there is nothing I can do about it." Calling the 800 reservations number am told "nothing I can do about it all I do is take reservations." Finally after arguing with the desk clerk about either getting one or giving me a refund she takes a fridge out of another empty room and brings it to mine, but the microwave she said was attatched to it was not there. Asking about that she said "oh I left it in the other room if you want come get it yourself."  Back surgery, a broken disc and 3 herniated disc in my lower back, 5 heart attacks and a quadruple by-pass and...The desk clerk promises anything to get your reservation but then appologizes only after you check in and denies any promises. Christine, the desk clerk, took my reservation and happily agreed to my request for an ADA room on first floor with 2 beds and a micro-fridge. Saying "that is no problem we have them in most rooms and will make sure you have one in yours." When I arrive I ask to confirm that the micro-fridge is in the room as I've been through this before at other La Quintas. The desk clerk says "yes your room has a micro-fridge." However when I walk in the room there is NOT one! So I call the desk and she says "well we only have 3 for the entire hotel so there is nothing I can do about it." Calling the 800 reservations number am told "nothing I can do about it all I do is take reservations." Finally after arguing with the desk clerk about either getting one or giving me a refund she takes a fridge out of another empty room and brings it to mine, but the microwave she said was attatched to it was not there. Asking about that she said "oh I left it in the other room if you want come get it yourself."  Back surgery, a broken disc and 3 herniated disc in my lower back, 5 heart attacks and a quadruple by-pass and I'm having to carry a microwave down the hall from 10 rooms away down to mine or do without. There are NO ice machines on first floor at all so if you can not climb stairs do NOT expect any ice! What is amazing is as cheap as this hotel is (which should have clued me in) it only had a handful of cars when I arrived and the hotel next door which is quite more expensive had a full parking lot of cars. Nothing more then an expensive Motel 6. Lies and false promises until they get the money on your card then its excuses, more lies and hollow appologies. Brown stained filthy carpets recyled sheets (which means don't change them if they're not stained). Supposed to be a non smoking room but my mom and wife which are allergic to smoke could smell the smoke stench of previous smokers in the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r142921096-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>142921096</t>
+  </si>
+  <si>
+    <t>10/15/2012</t>
+  </si>
+  <si>
+    <t>Convenient to DART train to state fair and downtown</t>
+  </si>
+  <si>
+    <t>I stayed on a Friday night to attend a college football game on Saturday at State Fair Park.  The Farmer's Branch light rail stop (green line) is only a couple of blocks away and the ride is about 40 minutes to the State Fair. Parking at the train stop is free, and not dealing with traffic and parking is a great convenience.The hotel is on the service road to I-35 and all rooms have exterior doors.  I booked a room through Obitz for about $55.  Check in was fine, the rooms were clean, and management started breakfast an hour earlier than advertised on Saturday morning to accomodate the football fans.  The hotel filled up Friday night, and there was a lot of activity around midnight, with guests/visitors banging on doors, slamming doors, all of which could be heard above the noise of the neaeby interstate highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed on a Friday night to attend a college football game on Saturday at State Fair Park.  The Farmer's Branch light rail stop (green line) is only a couple of blocks away and the ride is about 40 minutes to the State Fair. Parking at the train stop is free, and not dealing with traffic and parking is a great convenience.The hotel is on the service road to I-35 and all rooms have exterior doors.  I booked a room through Obitz for about $55.  Check in was fine, the rooms were clean, and management started breakfast an hour earlier than advertised on Saturday morning to accomodate the football fans.  The hotel filled up Friday night, and there was a lot of activity around midnight, with guests/visitors banging on doors, slamming doors, all of which could be heard above the noise of the neaeby interstate highway.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r141581368-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
@@ -618,9 +862,6 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r138160983-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -636,9 +877,6 @@
     <t>I NEVER have any issues staying here.  Always clean, always VERY friendly!  The only issue is not being able to turn the a/c fan on continuously while the air is running.  It wakes me up when it kicks on &amp; off.  Not a huge deal though....</t>
   </si>
   <si>
-    <t>doodah1959</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r137687363-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -654,7 +892,34 @@
     <t>We stayed august 17 and 18 and went to hurricane harbor and nrh2o water park and really enjoyed the room and workers was very friendly and helpful  and breakfast  was good texas waffles and lot of other things to chose from clean  breakfast area and lobby nice pool  would stay again</t>
   </si>
   <si>
-    <t>leighanneb_12812</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r137266292-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>137266292</t>
+  </si>
+  <si>
+    <t>08/15/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r135729918-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>135729918</t>
+  </si>
+  <si>
+    <t>07/29/2012</t>
+  </si>
+  <si>
+    <t>Not a safe area, Hotel is very old. Door 6 feet from loud parking lot</t>
+  </si>
+  <si>
+    <t>This is by far the least desirable La Quinta I have stayed in. The hotel staff was friendly and the rooms were clean but the location and condition of the hotel are not good. There was a lot of loitering and noise outside of our room. This is not a nice La Quinta with hallways and nice grassy grounds but doors 5 feet from parking lot. A lot of police activity in the area all night. We did not feel safe at this hotel and felt it important to keep eye on vehicle. Security would help as this is a bad location. The hotel is very old and not like most of the other La Quinta's we stay at. Do yourself and family a favor and pay slightly more for another area as the peace of mind is worth saving a few dollars.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>This is by far the least desirable La Quinta I have stayed in. The hotel staff was friendly and the rooms were clean but the location and condition of the hotel are not good. There was a lot of loitering and noise outside of our room. This is not a nice La Quinta with hallways and nice grassy grounds but doors 5 feet from parking lot. A lot of police activity in the area all night. We did not feel safe at this hotel and felt it important to keep eye on vehicle. Security would help as this is a bad location. The hotel is very old and not like most of the other La Quinta's we stay at. Do yourself and family a favor and pay slightly more for another area as the peace of mind is worth saving a few dollars.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r134034255-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
@@ -675,9 +940,6 @@
     <t>June 2012</t>
   </si>
   <si>
-    <t>Jnewsom124</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r132646675-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -708,7 +970,34 @@
     <t>I'm a Mover for Unite Van Lines. I drive long  Days to get from one state to another. And sometimes I get to where I got to go and I Unload familys Homes. I'm tiered from Driving and Unloading I know when I get to the Hotel I'm going to get a Warm shower and get a Good Nights Sleep.. Wonderful soft beds. Thank you LaQuinta... I joined your rewards program. I know I'm going to return...</t>
   </si>
   <si>
-    <t>sportstravelerTexas</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r131346068-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>131346068</t>
+  </si>
+  <si>
+    <t>06/05/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r131052787-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>131052787</t>
+  </si>
+  <si>
+    <t>05/31/2012</t>
+  </si>
+  <si>
+    <t>Not your average La.Q.</t>
+  </si>
+  <si>
+    <t>My sister and I stayed here while on business. We did not choose our hotel, and were weary of staying at a La Quinta. We were thankfully proven wrong about La Quinta's reputation. This hotel was clean, and the customer service is what you should receive when staying in a hotel. The staff was very friendly and accommodating, and provided our every need. The staff helped us find local areas to eat, and recommended different locations to visit in our off time. My sister is an absolute germ-o-phobe, and she requests fresh sheets each day, and they were more than willing to work with her "OCD" tendencies. If I had to travel back to this area for business, I would choose this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>My sister and I stayed here while on business. We did not choose our hotel, and were weary of staying at a La Quinta. We were thankfully proven wrong about La Quinta's reputation. This hotel was clean, and the customer service is what you should receive when staying in a hotel. The staff was very friendly and accommodating, and provided our every need. The staff helped us find local areas to eat, and recommended different locations to visit in our off time. My sister is an absolute germ-o-phobe, and she requests fresh sheets each day, and they were more than willing to work with her "OCD" tendencies. If I had to travel back to this area for business, I would choose this hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r126672267-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
@@ -732,9 +1021,6 @@
     <t>Although the room looked like it had been updated, it fell short of La Quinta standards. The room itself was fairly large and, except for the carpet, looked clean though it didn' 'feel' clean. The bedspreads were the older kind that don't get washed after every guest. The bathroom was teeny-tiny with rust on fixtures and part of the door knob falling off. This is a motor lodge kind of place and maybe this is why it felt like such and unpleasant experience. Everytime someone walked past our room, you could hear their whole conversation. The breakfast area is very small and there were crumbs everywhere. There was trash and crumbs on the floor and there was only one employee taking care of the front desk and the breakfast area. He was working hard to keep up and was very friendly, though.We were so unhappy with this place we checked out two days early.More</t>
   </si>
   <si>
-    <t>jemineye02</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r126110964-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -753,9 +1039,6 @@
     <t>I had an interview in the area so I stayed here for a night. This is a motel style location. All I required is that the room is clean and everything is in working condition and it was.  The TV service did go out for a little bit but it was repaired once we got back from dinner.  The wifi worked smoothly with no issues.  The breakfast in the morning was decent.  There was cereal, bagels, toast, oatmeal, yogurt, eggs (uncooked), coffee, juice and most notably a waffle maker.  The only word of caution that I have is that the water temperature in the shower will change if someone flushes the toilet next door.  I learned that the hard way.  Overall, it was a nice stay for the rate.  I’d return.More</t>
   </si>
   <si>
-    <t>Ra_2906</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r118626274-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -774,7 +1057,37 @@
     <t>September 2011</t>
   </si>
   <si>
-    <t>docscholl</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r116913725-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>116913725</t>
+  </si>
+  <si>
+    <t>08/18/2011</t>
+  </si>
+  <si>
+    <t>Highly recommended!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loved it! Incredible price, poolside room and awesome breakfast. The bed was supremely comfortable.the property ian clean and quiet. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r104669807-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>104669807</t>
+  </si>
+  <si>
+    <t>04/19/2011</t>
+  </si>
+  <si>
+    <t>average across the board</t>
+  </si>
+  <si>
+    <t>This is your typical 2 star exterior corridor motor lodge.  I expected more from this particular brand with whom I have stayed before.  Everything is in working order.  The locks are a bit tricky.  The rooms were tight but adequate.  The decor in the rooms was blah.  Breakfast was OK but nothing special.  The staff was friendly but not outgoing.  It is a bit of a walk to the DART about 10-15 minutes depending on your pace, which will get you downtown pretty cost effectively.  It was exactly what I paid for, nothing less, and certainly nothing more.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r84808830-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
@@ -795,9 +1108,6 @@
     <t>October 2010</t>
   </si>
   <si>
-    <t>babybs39</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r65226422-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -816,9 +1126,6 @@
     <t>May 2010</t>
   </si>
   <si>
-    <t>nanaMissouri</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r51827140-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -840,7 +1147,40 @@
     <t>It is an older hotel that needs some TLC.Outside walkways could use some cleaning and paint. Our room small but comfortable.Carpet could be replaced. Bathroom was big but the ceiling leaked. I heard water dripping when the people above us took a shower. You could tell it was not the first time. I notified the front desk. They did e-mail us later to tell us that they had taken the room out of service and where repairing the ceiling.The breakfast room was very small. Just a little area in the Lobby. Crowded and not set up very good. People kept wandering looking for stuff and when things ran out the front desk person had to find the time to refill in between checking people out and answering the phone. Price was HIGH for what we got.More</t>
   </si>
   <si>
-    <t>JenArc</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r41605322-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>41605322</t>
+  </si>
+  <si>
+    <t>09/14/2009</t>
+  </si>
+  <si>
+    <t>Very good hotel</t>
+  </si>
+  <si>
+    <t>This hotel has tremendous value with a great staff. You pay so little for great service and everything.   This hotel I recommend to anybody</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r26377474-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>26377474</t>
+  </si>
+  <si>
+    <t>03/18/2009</t>
+  </si>
+  <si>
+    <t>A great place to stay</t>
+  </si>
+  <si>
+    <t>We stayed one night and were very impressed by cleanliness, helpfulness of staff and the breakfast was very good. The neighborhood is somewhat industrial and might not have been the safest, but made sure our valuables were not in sight and we locked everything up.</t>
+  </si>
+  <si>
+    <t>March 2009</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r23618427-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
@@ -872,9 +1212,6 @@
 zInitially I thought it was just this branch that was the problem. I called their *corporate office* which is in within the same DFW area (surprise! surprise!), they gave exactly the same attitude, they don't care about the safety of their guest, they just want your money, and they had the nerve to tell me they are not going to take any responsibility and the branch manager did the right thing to me! The corporate office also tried to hang up on me! They don't even care I...DO NOT STAY HERE!STAFFThis hotel is very unsafe and hotel management is evil. I got my car broken into IN THEIR PARKING LOT 30 feet from my room and the management not only do not give a damn that their hotel guest was victim of crime on THEIR PROPERTY, they have the nerve to charge me for the stay.  They even tried to hang up on me when I complained and demanded a refund. They did not even offer to clean the broken glass from my car. *I* had to call them on my own and the maintenance guy did not even clean out all the glass fully! This is a bunch of extremely irresponsible people. I did not realized they don't have security patrolling at night like many other hotels. The management and staff are also giving "fake niceness". They pretend to be nice but they are actually not. zInitially I thought it was just this branch that was the problem. I called their *corporate office* which is in within the same DFW area (surprise! surprise!), they gave exactly the same attitude, they don't care about the safety of their guest, they just want your money, and they had the nerve to tell me they are not going to take any responsibility and the branch manager did the right thing to me! The corporate office also tried to hang up on me! They don't even care I am complaining to Beeter Business Burea (BBB) on them. This mentality is carried at their whole company!I have travelled extensively and had never seen such an irresponsible hotel business chain.I WILL NOT stay at this chain hotel again. I had spread the word out to people I know and those on the streets already. Many people that heard my story are appalled by this and will not be staying here either.Boycott La Quintas, You have many other choices! Do not patrolize a business that doesn't care their guest or property are attacked on their premise! You are the customer you have to right to be safe in a hotel !More</t>
   </si>
   <si>
-    <t>PMTexas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r17104914-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -896,9 +1233,6 @@
     <t>I stay here with my family (wife and 2 teen girls) for 1 night when we decided to spend a weekend in Dallas. For about US $ 70 dollars we got a very clean room with two queen beds, a nice continental breakfast, free parking in front of the room and the usual amenities (cable, Internet, clean small swimming pool, etc.). In its category - a place to rest in a proper fashion - is a above average hotel.Service is very good. For instance, I got a problem with my bathroom (shower was not working) and they change my room real quick and gave me a complimentary premium on-demand movie for free.More</t>
   </si>
   <si>
-    <t>beachlover7492</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r16353532-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -917,7 +1251,31 @@
     <t>May 2007</t>
   </si>
   <si>
-    <t>joem1097</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r11286478-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>11286478</t>
+  </si>
+  <si>
+    <t>12/06/2007</t>
+  </si>
+  <si>
+    <t>loved it</t>
+  </si>
+  <si>
+    <t>I dont agree with alot of the things that people say about this hotel.  I work at a hotel so I know how things should be and I think that this is a great hotel for the price.  The staff there is very very kind and more than willing to help with any inconvinence that anyone might have.  I would deffinatly suggest this hotel to people if they want a nice comfy room for a great price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r11283878-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>11283878</t>
+  </si>
+  <si>
+    <t>ohh yea</t>
+  </si>
+  <si>
+    <t>This is an amazing place to stay for the place.  When I stayed it was very cold and I didnt get to enjoy the pool but had it been warm out I would have been in it because it was right outside my room.   The front desk agents were very very kind and helpfuly since we didnt know our way around dallas.  but i would definatly reccomend this as a good place to stay if you want low prices.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r8483661-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
@@ -939,9 +1297,6 @@
   </si>
   <si>
     <t>I havent written a review before, but this place inspired me to do so.  The location is very sketchy---a warehouse/industrial area, and there are a lot of not so friendly people milling around the parking lot throughout the night. Teens on bikes, people just sitting in cars. It took 15 minutes to check in (and I had a reservation).  The room was clean, but was very ragged. The carpet and parts of the walls were stained.  The noise from people in the parking lot kept me up, and another noise early in the morning turned out to be a rather large insect in my room. I skipped my 2nd night despite already prepaying. (It may be cheap, but trust me, it isn't worth it).More</t>
-  </si>
-  <si>
-    <t>wtracing</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d98687-r8419458-Motel_6_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
@@ -1486,114 +1841,100 @@
       <c r="A2" t="n">
         <v>5198</v>
       </c>
-      <c r="B2" t="n">
-        <v>169382</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5198</v>
       </c>
-      <c r="B3" t="n">
-        <v>169383</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1604,126 +1945,116 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5198</v>
       </c>
-      <c r="B4" t="n">
-        <v>169384</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>73</v>
-      </c>
-      <c r="X4" t="s">
-        <v>74</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5198</v>
       </c>
-      <c r="B5" t="n">
-        <v>169385</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1734,57 +2065,57 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5198</v>
       </c>
-      <c r="B6" t="n">
-        <v>169386</v>
-      </c>
-      <c r="C6" t="s">
-        <v>84</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1795,398 +2126,372 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5198</v>
       </c>
-      <c r="B7" t="n">
-        <v>2466</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5198</v>
       </c>
-      <c r="B8" t="n">
-        <v>27964</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
         <v>98</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>99</v>
       </c>
-      <c r="J8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" t="s">
-        <v>102</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>103</v>
-      </c>
       <c r="O8" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5198</v>
       </c>
-      <c r="B9" t="n">
-        <v>89452</v>
-      </c>
-      <c r="C9" t="s">
-        <v>106</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
         <v>107</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>108</v>
       </c>
-      <c r="J9" t="s">
+      <c r="O9" t="s">
         <v>109</v>
       </c>
-      <c r="K9" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" t="s">
-        <v>111</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>112</v>
-      </c>
-      <c r="O9" t="s">
-        <v>104</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5198</v>
       </c>
-      <c r="B10" t="n">
-        <v>169387</v>
-      </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
         <v>114</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" t="s">
-        <v>117</v>
-      </c>
-      <c r="L10" t="s">
-        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5198</v>
       </c>
-      <c r="B11" t="n">
-        <v>129685</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5198</v>
       </c>
-      <c r="B12" t="n">
-        <v>169388</v>
-      </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" t="n">
         <v>3</v>
       </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2194,68 +2499,62 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5198</v>
       </c>
-      <c r="B13" t="n">
-        <v>169389</v>
-      </c>
-      <c r="C13" t="s">
-        <v>135</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
-      <c r="N13" t="s">
-        <v>140</v>
-      </c>
-      <c r="O13" t="s">
-        <v>83</v>
-      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
       <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2</v>
       </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
       <c r="R13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2263,70 +2562,62 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5198</v>
       </c>
-      <c r="B14" t="n">
-        <v>169390</v>
-      </c>
-      <c r="C14" t="s">
-        <v>142</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2334,66 +2625,60 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5198</v>
       </c>
-      <c r="B15" t="n">
-        <v>169391</v>
-      </c>
-      <c r="C15" t="s">
-        <v>149</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>138</v>
+      </c>
       <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2401,131 +2686,125 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5198</v>
       </c>
-      <c r="B16" t="n">
-        <v>35605</v>
-      </c>
-      <c r="C16" t="s">
-        <v>155</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" t="s">
-        <v>148</v>
-      </c>
-      <c r="O16" t="s">
-        <v>72</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5198</v>
       </c>
-      <c r="B17" t="n">
-        <v>169392</v>
-      </c>
-      <c r="C17" t="s">
-        <v>161</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>167</v>
-      </c>
-      <c r="O17" t="s">
-        <v>83</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
         <v>3</v>
       </c>
       <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
         <v>3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2533,185 +2812,164 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5198</v>
       </c>
-      <c r="B18" t="n">
-        <v>169393</v>
-      </c>
-      <c r="C18" t="s">
-        <v>169</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s">
-        <v>83</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5198</v>
       </c>
-      <c r="B19" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C19" t="s">
-        <v>176</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
-      </c>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>168</v>
+      </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5198</v>
       </c>
-      <c r="B20" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C20" t="s">
-        <v>176</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="J20" t="s">
-        <v>183</v>
-      </c>
-      <c r="K20" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="K20" t="s">
+        <v>174</v>
+      </c>
       <c r="L20" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2720,14 +2978,14 @@
         <v>4</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2735,101 +2993,100 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5198</v>
       </c>
-      <c r="B21" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C21" t="s">
-        <v>176</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J21" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O21" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5198</v>
       </c>
-      <c r="B22" t="n">
-        <v>169394</v>
-      </c>
-      <c r="C22" t="s">
-        <v>188</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s"/>
@@ -2837,10 +3094,10 @@
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="O22" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2861,52 +3118,51 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5198</v>
       </c>
-      <c r="B23" t="n">
-        <v>169395</v>
-      </c>
-      <c r="C23" t="s">
-        <v>193</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="J23" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="O23" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2915,14 +3171,14 @@
         <v>4</v>
       </c>
       <c r="R23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2930,63 +3186,59 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5198</v>
       </c>
-      <c r="B24" t="n">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>200</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="J24" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="K24" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="L24" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3001,70 +3253,62 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5198</v>
       </c>
-      <c r="B25" t="n">
-        <v>163805</v>
-      </c>
-      <c r="C25" t="s">
-        <v>206</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="J25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="K25" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>199</v>
-      </c>
-      <c r="O25" t="s">
-        <v>83</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
       <c r="P25" t="n">
         <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3072,137 +3316,123 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5198</v>
       </c>
-      <c r="B26" t="n">
-        <v>169396</v>
-      </c>
-      <c r="C26" t="s">
-        <v>212</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="J26" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="K26" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="O26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>4</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5198</v>
       </c>
-      <c r="B27" t="n">
-        <v>169397</v>
-      </c>
-      <c r="C27" t="s">
-        <v>219</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="J27" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>190</v>
+      </c>
+      <c r="O27" t="s">
+        <v>138</v>
+      </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3210,70 +3440,66 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5198</v>
       </c>
-      <c r="B28" t="n">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>200</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="J28" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="K28" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="O28" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
         <v>5</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3281,66 +3507,62 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5198</v>
       </c>
-      <c r="B29" t="n">
-        <v>147346</v>
-      </c>
-      <c r="C29" t="s">
-        <v>230</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="J29" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>190</v>
+      </c>
+      <c r="O29" t="s">
+        <v>109</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
         <v>3</v>
-      </c>
-      <c r="N29" t="s">
-        <v>236</v>
-      </c>
-      <c r="O29" t="s">
-        <v>83</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
       </c>
       <c r="R29" t="n">
         <v>3</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -3352,54 +3574,50 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5198</v>
       </c>
-      <c r="B30" t="n">
-        <v>169398</v>
-      </c>
-      <c r="C30" t="s">
-        <v>238</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="J30" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="K30" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O30" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3408,7 +3626,7 @@
         <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S30" t="n">
         <v>4</v>
@@ -3423,141 +3641,127 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5198</v>
       </c>
-      <c r="B31" t="n">
-        <v>72525</v>
-      </c>
-      <c r="C31" t="s">
-        <v>245</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="J31" t="s">
-        <v>248</v>
-      </c>
-      <c r="K31" t="s">
-        <v>249</v>
-      </c>
-      <c r="L31" t="s">
-        <v>250</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="O31" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
-      <c r="Y31" t="s">
-        <v>250</v>
-      </c>
+      <c r="Y31" t="s"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>5198</v>
       </c>
-      <c r="B32" t="n">
-        <v>169399</v>
-      </c>
-      <c r="C32" t="s">
-        <v>252</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="J32" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="K32" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="L32" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="O32" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3565,66 +3769,62 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>5198</v>
       </c>
-      <c r="B33" t="n">
-        <v>169400</v>
-      </c>
-      <c r="C33" t="s">
-        <v>259</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="J33" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="K33" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="L33" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="O33" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
@@ -3636,70 +3836,64 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>5198</v>
       </c>
-      <c r="B34" t="n">
-        <v>72309</v>
-      </c>
-      <c r="C34" t="s">
-        <v>266</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="J34" t="s">
-        <v>269</v>
-      </c>
-      <c r="K34" t="s">
-        <v>270</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="K34" t="s"/>
       <c r="L34" t="s">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="O34" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3707,204 +3901,188 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>273</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>5198</v>
       </c>
-      <c r="B35" t="n">
-        <v>169401</v>
-      </c>
-      <c r="C35" t="s">
-        <v>274</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="J35" t="s">
-        <v>277</v>
-      </c>
-      <c r="K35" t="s">
-        <v>278</v>
-      </c>
-      <c r="L35" t="s">
-        <v>279</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="O35" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
-      <c r="Y35" t="s">
-        <v>281</v>
-      </c>
+      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>5198</v>
       </c>
-      <c r="B36" t="n">
-        <v>38938</v>
-      </c>
-      <c r="C36" t="s">
-        <v>282</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="J36" t="s">
-        <v>285</v>
-      </c>
-      <c r="K36" t="s">
-        <v>286</v>
-      </c>
-      <c r="L36" t="s">
-        <v>287</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="O36" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
-      <c r="Y36" t="s">
-        <v>289</v>
-      </c>
+      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>5198</v>
       </c>
-      <c r="B37" t="n">
-        <v>169402</v>
-      </c>
-      <c r="C37" t="s">
-        <v>290</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="J37" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="K37" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="L37" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="O37" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3912,123 +4090,117 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>5198</v>
       </c>
-      <c r="B38" t="n">
-        <v>169403</v>
-      </c>
-      <c r="C38" t="s">
-        <v>297</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="J38" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="K38" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="L38" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="O38" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="P38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
         <v>2</v>
       </c>
       <c r="R38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>5198</v>
       </c>
-      <c r="B39" t="n">
-        <v>75153</v>
-      </c>
-      <c r="C39" t="s">
-        <v>305</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="J39" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="K39" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="L39" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="O39" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4037,20 +4209,1708 @@
         <v>4</v>
       </c>
       <c r="R39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
       </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>277</v>
+      </c>
+      <c r="J40" t="s">
+        <v>278</v>
+      </c>
+      <c r="K40" t="s">
+        <v>279</v>
+      </c>
+      <c r="L40" t="s">
+        <v>280</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>275</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>281</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>282</v>
+      </c>
+      <c r="J41" t="s">
+        <v>283</v>
+      </c>
+      <c r="K41" t="s">
+        <v>284</v>
+      </c>
+      <c r="L41" t="s">
+        <v>285</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>275</v>
+      </c>
+      <c r="O41" t="s">
+        <v>109</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>286</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>287</v>
+      </c>
+      <c r="J42" t="s">
+        <v>288</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>275</v>
+      </c>
+      <c r="O42" t="s">
+        <v>109</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>289</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>290</v>
+      </c>
+      <c r="J43" t="s">
+        <v>291</v>
+      </c>
+      <c r="K43" t="s">
+        <v>292</v>
+      </c>
+      <c r="L43" t="s">
+        <v>293</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>294</v>
+      </c>
+      <c r="O43" t="s">
+        <v>109</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>296</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>297</v>
+      </c>
+      <c r="J44" t="s">
+        <v>298</v>
+      </c>
+      <c r="K44" t="s">
+        <v>299</v>
+      </c>
+      <c r="L44" t="s">
+        <v>300</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>301</v>
+      </c>
+      <c r="O44" t="s">
+        <v>109</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>302</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>303</v>
+      </c>
+      <c r="J45" t="s">
+        <v>304</v>
+      </c>
+      <c r="K45" t="s">
+        <v>305</v>
+      </c>
+      <c r="L45" t="s">
+        <v>306</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>307</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>308</v>
+      </c>
+      <c r="J46" t="s">
+        <v>309</v>
+      </c>
+      <c r="K46" t="s">
+        <v>310</v>
+      </c>
+      <c r="L46" t="s">
         <v>311</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>301</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>312</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>313</v>
+      </c>
+      <c r="J47" t="s">
+        <v>314</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s">
+        <v>181</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>301</v>
+      </c>
+      <c r="O47" t="s">
+        <v>109</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>315</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>316</v>
+      </c>
+      <c r="J48" t="s">
+        <v>317</v>
+      </c>
+      <c r="K48" t="s">
+        <v>318</v>
+      </c>
+      <c r="L48" t="s">
+        <v>319</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>320</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>322</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>323</v>
+      </c>
+      <c r="J49" t="s">
+        <v>324</v>
+      </c>
+      <c r="K49" t="s">
+        <v>325</v>
+      </c>
+      <c r="L49" t="s">
+        <v>326</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>327</v>
+      </c>
+      <c r="O49" t="s">
+        <v>109</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>329</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>330</v>
+      </c>
+      <c r="J50" t="s">
+        <v>331</v>
+      </c>
+      <c r="K50" t="s">
+        <v>332</v>
+      </c>
+      <c r="L50" t="s">
+        <v>333</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>327</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>335</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>336</v>
+      </c>
+      <c r="J51" t="s">
+        <v>337</v>
+      </c>
+      <c r="K51" t="s">
+        <v>338</v>
+      </c>
+      <c r="L51" t="s">
+        <v>339</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>340</v>
+      </c>
+      <c r="O51" t="s">
+        <v>138</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>341</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>342</v>
+      </c>
+      <c r="J52" t="s">
+        <v>343</v>
+      </c>
+      <c r="K52" t="s">
+        <v>344</v>
+      </c>
+      <c r="L52" t="s">
+        <v>345</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>346</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>347</v>
+      </c>
+      <c r="J53" t="s">
+        <v>348</v>
+      </c>
+      <c r="K53" t="s">
+        <v>349</v>
+      </c>
+      <c r="L53" t="s">
+        <v>350</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>351</v>
+      </c>
+      <c r="O53" t="s">
+        <v>109</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>352</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>353</v>
+      </c>
+      <c r="J54" t="s">
+        <v>354</v>
+      </c>
+      <c r="K54" t="s">
+        <v>355</v>
+      </c>
+      <c r="L54" t="s">
+        <v>356</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>357</v>
+      </c>
+      <c r="O54" t="s">
+        <v>109</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>358</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>359</v>
+      </c>
+      <c r="J55" t="s">
+        <v>360</v>
+      </c>
+      <c r="K55" t="s">
+        <v>361</v>
+      </c>
+      <c r="L55" t="s">
+        <v>362</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>363</v>
+      </c>
+      <c r="O55" t="s">
+        <v>66</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>364</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>365</v>
+      </c>
+      <c r="J56" t="s">
+        <v>366</v>
+      </c>
+      <c r="K56" t="s">
+        <v>367</v>
+      </c>
+      <c r="L56" t="s">
+        <v>368</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>369</v>
+      </c>
+      <c r="O56" t="s">
+        <v>66</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>371</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>372</v>
+      </c>
+      <c r="J57" t="s">
+        <v>373</v>
+      </c>
+      <c r="K57" t="s">
+        <v>374</v>
+      </c>
+      <c r="L57" t="s">
+        <v>375</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>376</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>377</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>378</v>
+      </c>
+      <c r="J58" t="s">
+        <v>379</v>
+      </c>
+      <c r="K58" t="s">
+        <v>380</v>
+      </c>
+      <c r="L58" t="s">
+        <v>381</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>382</v>
+      </c>
+      <c r="O58" t="s">
+        <v>66</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>383</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>384</v>
+      </c>
+      <c r="J59" t="s">
+        <v>385</v>
+      </c>
+      <c r="K59" t="s">
+        <v>386</v>
+      </c>
+      <c r="L59" t="s">
+        <v>387</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>388</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>390</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J60" t="s">
+        <v>392</v>
+      </c>
+      <c r="K60" t="s">
+        <v>393</v>
+      </c>
+      <c r="L60" t="s">
+        <v>394</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>395</v>
+      </c>
+      <c r="O60" t="s">
+        <v>109</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>397</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>398</v>
+      </c>
+      <c r="J61" t="s">
+        <v>399</v>
+      </c>
+      <c r="K61" t="s">
+        <v>400</v>
+      </c>
+      <c r="L61" t="s">
+        <v>401</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>402</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>403</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>404</v>
+      </c>
+      <c r="J62" t="s">
+        <v>405</v>
+      </c>
+      <c r="K62" t="s">
+        <v>406</v>
+      </c>
+      <c r="L62" t="s">
+        <v>407</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>408</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>409</v>
+      </c>
+      <c r="J63" t="s">
+        <v>405</v>
+      </c>
+      <c r="K63" t="s">
+        <v>410</v>
+      </c>
+      <c r="L63" t="s">
+        <v>411</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>412</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>413</v>
+      </c>
+      <c r="J64" t="s">
+        <v>414</v>
+      </c>
+      <c r="K64" t="s">
+        <v>415</v>
+      </c>
+      <c r="L64" t="s">
+        <v>416</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>417</v>
+      </c>
+      <c r="O64" t="s">
+        <v>138</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>419</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>420</v>
+      </c>
+      <c r="J65" t="s">
+        <v>421</v>
+      </c>
+      <c r="K65" t="s">
+        <v>422</v>
+      </c>
+      <c r="L65" t="s">
+        <v>423</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>417</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
